--- a/excel/finished/wg8#高炉/8高炉炉料消耗月报表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉炉料消耗月报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templates\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC9619D-4C09-4B03-903B-D5CFCE015E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A973B60-7C56-4F18-8104-6F6A7C705E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="炉料消耗" sheetId="1" r:id="rId1"/>
@@ -1421,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1597,6 +1597,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1605,6 +1655,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,62 +1687,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1969,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3068,70 +3076,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="28.8" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="64"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
     </row>
     <row r="2" spans="1:50" s="6" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68" t="s">
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="70"/>
+      <c r="U2" s="61"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
@@ -3163,55 +3171,55 @@
       <c r="AX2" s="5"/>
     </row>
     <row r="3" spans="1:50" s="6" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="51" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="59" t="s">
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="R3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="59" t="s">
+      <c r="S3" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="61">
+      <c r="T3" s="58">
         <v>1</v>
       </c>
-      <c r="U3" s="55">
+      <c r="U3" s="70">
         <v>2</v>
       </c>
       <c r="V3" s="4"/>
@@ -3245,27 +3253,27 @@
       <c r="AX3" s="5"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="56"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="71"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -3652,51 +3660,51 @@
         <f t="shared" ref="C16:P16" si="0">IFERROR(AVERAGE(C5:C15),"")</f>
         <v/>
       </c>
-      <c r="D16" s="34" t="str">
+      <c r="D16" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34" t="str">
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="34" t="str">
+      <c r="I16" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="34" t="str">
+      <c r="J16" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="34" t="str">
+      <c r="K16" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="34" t="str">
+      <c r="L16" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34" t="str">
+      <c r="M16" s="75"/>
+      <c r="N16" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O16" s="34" t="str">
+      <c r="O16" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P16" s="34" t="str">
+      <c r="P16" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="27">
@@ -3960,51 +3968,51 @@
         <f t="shared" ref="C27:P27" si="1">IFERROR(AVERAGE(C17:C26),"")</f>
         <v/>
       </c>
-      <c r="D27" s="34" t="str">
+      <c r="D27" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34" t="str">
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I27" s="34" t="str">
+      <c r="I27" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J27" s="34" t="str">
+      <c r="J27" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K27" s="34" t="str">
+      <c r="K27" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L27" s="34" t="str">
+      <c r="L27" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34" t="str">
+      <c r="M27" s="75"/>
+      <c r="N27" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O27" s="34" t="str">
+      <c r="O27" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P27" s="34" t="str">
+      <c r="P27" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="27">
@@ -4293,51 +4301,51 @@
         <f t="shared" ref="C39:P39" si="2">IFERROR(AVERAGE(C28:C38),"")</f>
         <v/>
       </c>
-      <c r="D39" s="34" t="str">
+      <c r="D39" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34" t="str">
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="34" t="str">
+      <c r="I39" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J39" s="34" t="str">
+      <c r="J39" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K39" s="34" t="str">
+      <c r="K39" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L39" s="34" t="str">
+      <c r="L39" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34" t="str">
+      <c r="M39" s="75"/>
+      <c r="N39" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O39" s="34" t="str">
+      <c r="O39" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P39" s="34" t="str">
+      <c r="P39" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
     </row>
     <row r="40" spans="1:50" s="11" customFormat="1" ht="13.8" thickBot="1">
       <c r="A40" s="32" t="s">
@@ -4351,51 +4359,51 @@
         <f t="shared" ref="C40:P40" si="3">IFERROR(AVERAGE(C16,C27,C39),"")</f>
         <v/>
       </c>
-      <c r="D40" s="33" t="str">
+      <c r="D40" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="str">
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I40" s="33" t="str">
+      <c r="I40" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J40" s="33" t="str">
+      <c r="J40" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K40" s="33" t="str">
+      <c r="K40" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L40" s="33" t="str">
+      <c r="L40" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33" t="str">
+      <c r="M40" s="76"/>
+      <c r="N40" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O40" s="33" t="str">
+      <c r="O40" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P40" s="33" t="str">
+      <c r="P40" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -5528,6 +5536,15 @@
     <protectedRange sqref="S6:S15 S17:S21 S23:S26 S28:S37" name="区域3_1_1_2"/>
   </protectedRanges>
   <mergeCells count="25">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -5544,15 +5561,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/wg8#高炉/8高炉炉料消耗月报表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉炉料消耗月报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templates\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A973B60-7C56-4F18-8104-6F6A7C705E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC591F5A-24F3-4605-B4BD-13A47D5CA2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="炉料消耗" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -122,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <r>
       <rPr>
@@ -414,19 +416,6 @@
         <charset val="134"/>
       </rPr>
       <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>湿熄焦炉数</t>
     </r>
   </si>
   <si>
@@ -487,10 +476,6 @@
   </si>
   <si>
     <t>IRON,Tfe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回用焦丁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -558,10 +543,6 @@
   </si>
   <si>
     <t>DAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -923,6 +904,143 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>回用焦丁批重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小焦批重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿熄焦炉数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧结矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>料线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烧结矿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>料线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>焦炭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>料线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小烧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -934,7 +1052,7 @@
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1053,6 +1171,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1080,7 +1214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1417,11 +1551,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1593,7 +1749,82 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1629,31 +1860,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1661,38 +1884,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1975,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX92"/>
+  <dimension ref="A1:AY92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1996,1151 +2187,1152 @@
     <col min="17" max="17" width="17.44140625" style="25" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" style="25" customWidth="1"/>
     <col min="19" max="19" width="13.77734375" style="25" customWidth="1"/>
-    <col min="20" max="20" width="6.77734375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="6.77734375" style="26" customWidth="1"/>
-    <col min="22" max="49" width="9" style="1"/>
-    <col min="50" max="50" width="9" style="2"/>
-    <col min="51" max="254" width="9" style="3"/>
-    <col min="255" max="255" width="4.77734375" style="3" customWidth="1"/>
-    <col min="256" max="256" width="8.109375" style="3" customWidth="1"/>
-    <col min="257" max="257" width="9.109375" style="3" customWidth="1"/>
-    <col min="258" max="265" width="8.109375" style="3" customWidth="1"/>
-    <col min="266" max="266" width="7.33203125" style="3" customWidth="1"/>
-    <col min="267" max="267" width="6.33203125" style="3" customWidth="1"/>
-    <col min="268" max="268" width="9.44140625" style="3" customWidth="1"/>
-    <col min="269" max="269" width="8.109375" style="3" customWidth="1"/>
-    <col min="270" max="270" width="7.77734375" style="3" customWidth="1"/>
-    <col min="271" max="271" width="8.21875" style="3" customWidth="1"/>
-    <col min="272" max="272" width="8.33203125" style="3" customWidth="1"/>
-    <col min="273" max="273" width="18.21875" style="3" customWidth="1"/>
-    <col min="274" max="274" width="16.109375" style="3" customWidth="1"/>
-    <col min="275" max="275" width="9.77734375" style="3" customWidth="1"/>
-    <col min="276" max="276" width="6.33203125" style="3" customWidth="1"/>
-    <col min="277" max="277" width="6.109375" style="3" customWidth="1"/>
-    <col min="278" max="510" width="9" style="3"/>
-    <col min="511" max="511" width="4.77734375" style="3" customWidth="1"/>
-    <col min="512" max="512" width="8.109375" style="3" customWidth="1"/>
-    <col min="513" max="513" width="9.109375" style="3" customWidth="1"/>
-    <col min="514" max="521" width="8.109375" style="3" customWidth="1"/>
-    <col min="522" max="522" width="7.33203125" style="3" customWidth="1"/>
-    <col min="523" max="523" width="6.33203125" style="3" customWidth="1"/>
-    <col min="524" max="524" width="9.44140625" style="3" customWidth="1"/>
-    <col min="525" max="525" width="8.109375" style="3" customWidth="1"/>
-    <col min="526" max="526" width="7.77734375" style="3" customWidth="1"/>
-    <col min="527" max="527" width="8.21875" style="3" customWidth="1"/>
-    <col min="528" max="528" width="8.33203125" style="3" customWidth="1"/>
-    <col min="529" max="529" width="18.21875" style="3" customWidth="1"/>
-    <col min="530" max="530" width="16.109375" style="3" customWidth="1"/>
-    <col min="531" max="531" width="9.77734375" style="3" customWidth="1"/>
-    <col min="532" max="532" width="6.33203125" style="3" customWidth="1"/>
-    <col min="533" max="533" width="6.109375" style="3" customWidth="1"/>
-    <col min="534" max="766" width="9" style="3"/>
-    <col min="767" max="767" width="4.77734375" style="3" customWidth="1"/>
-    <col min="768" max="768" width="8.109375" style="3" customWidth="1"/>
-    <col min="769" max="769" width="9.109375" style="3" customWidth="1"/>
-    <col min="770" max="777" width="8.109375" style="3" customWidth="1"/>
-    <col min="778" max="778" width="7.33203125" style="3" customWidth="1"/>
-    <col min="779" max="779" width="6.33203125" style="3" customWidth="1"/>
-    <col min="780" max="780" width="9.44140625" style="3" customWidth="1"/>
-    <col min="781" max="781" width="8.109375" style="3" customWidth="1"/>
-    <col min="782" max="782" width="7.77734375" style="3" customWidth="1"/>
-    <col min="783" max="783" width="8.21875" style="3" customWidth="1"/>
-    <col min="784" max="784" width="8.33203125" style="3" customWidth="1"/>
-    <col min="785" max="785" width="18.21875" style="3" customWidth="1"/>
-    <col min="786" max="786" width="16.109375" style="3" customWidth="1"/>
-    <col min="787" max="787" width="9.77734375" style="3" customWidth="1"/>
-    <col min="788" max="788" width="6.33203125" style="3" customWidth="1"/>
-    <col min="789" max="789" width="6.109375" style="3" customWidth="1"/>
-    <col min="790" max="1022" width="9" style="3"/>
-    <col min="1023" max="1023" width="4.77734375" style="3" customWidth="1"/>
-    <col min="1024" max="1024" width="8.109375" style="3" customWidth="1"/>
-    <col min="1025" max="1025" width="9.109375" style="3" customWidth="1"/>
-    <col min="1026" max="1033" width="8.109375" style="3" customWidth="1"/>
-    <col min="1034" max="1034" width="7.33203125" style="3" customWidth="1"/>
-    <col min="1035" max="1035" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1036" max="1036" width="9.44140625" style="3" customWidth="1"/>
-    <col min="1037" max="1037" width="8.109375" style="3" customWidth="1"/>
-    <col min="1038" max="1038" width="7.77734375" style="3" customWidth="1"/>
-    <col min="1039" max="1039" width="8.21875" style="3" customWidth="1"/>
-    <col min="1040" max="1040" width="8.33203125" style="3" customWidth="1"/>
-    <col min="1041" max="1041" width="18.21875" style="3" customWidth="1"/>
-    <col min="1042" max="1042" width="16.109375" style="3" customWidth="1"/>
-    <col min="1043" max="1043" width="9.77734375" style="3" customWidth="1"/>
-    <col min="1044" max="1044" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1045" max="1045" width="6.109375" style="3" customWidth="1"/>
-    <col min="1046" max="1278" width="9" style="3"/>
-    <col min="1279" max="1279" width="4.77734375" style="3" customWidth="1"/>
-    <col min="1280" max="1280" width="8.109375" style="3" customWidth="1"/>
-    <col min="1281" max="1281" width="9.109375" style="3" customWidth="1"/>
-    <col min="1282" max="1289" width="8.109375" style="3" customWidth="1"/>
-    <col min="1290" max="1290" width="7.33203125" style="3" customWidth="1"/>
-    <col min="1291" max="1291" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1292" max="1292" width="9.44140625" style="3" customWidth="1"/>
-    <col min="1293" max="1293" width="8.109375" style="3" customWidth="1"/>
-    <col min="1294" max="1294" width="7.77734375" style="3" customWidth="1"/>
-    <col min="1295" max="1295" width="8.21875" style="3" customWidth="1"/>
-    <col min="1296" max="1296" width="8.33203125" style="3" customWidth="1"/>
-    <col min="1297" max="1297" width="18.21875" style="3" customWidth="1"/>
-    <col min="1298" max="1298" width="16.109375" style="3" customWidth="1"/>
-    <col min="1299" max="1299" width="9.77734375" style="3" customWidth="1"/>
-    <col min="1300" max="1300" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1301" max="1301" width="6.109375" style="3" customWidth="1"/>
-    <col min="1302" max="1534" width="9" style="3"/>
-    <col min="1535" max="1535" width="4.77734375" style="3" customWidth="1"/>
-    <col min="1536" max="1536" width="8.109375" style="3" customWidth="1"/>
-    <col min="1537" max="1537" width="9.109375" style="3" customWidth="1"/>
-    <col min="1538" max="1545" width="8.109375" style="3" customWidth="1"/>
-    <col min="1546" max="1546" width="7.33203125" style="3" customWidth="1"/>
-    <col min="1547" max="1547" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1548" max="1548" width="9.44140625" style="3" customWidth="1"/>
-    <col min="1549" max="1549" width="8.109375" style="3" customWidth="1"/>
-    <col min="1550" max="1550" width="7.77734375" style="3" customWidth="1"/>
-    <col min="1551" max="1551" width="8.21875" style="3" customWidth="1"/>
-    <col min="1552" max="1552" width="8.33203125" style="3" customWidth="1"/>
-    <col min="1553" max="1553" width="18.21875" style="3" customWidth="1"/>
-    <col min="1554" max="1554" width="16.109375" style="3" customWidth="1"/>
-    <col min="1555" max="1555" width="9.77734375" style="3" customWidth="1"/>
-    <col min="1556" max="1556" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1557" max="1557" width="6.109375" style="3" customWidth="1"/>
-    <col min="1558" max="1790" width="9" style="3"/>
-    <col min="1791" max="1791" width="4.77734375" style="3" customWidth="1"/>
-    <col min="1792" max="1792" width="8.109375" style="3" customWidth="1"/>
-    <col min="1793" max="1793" width="9.109375" style="3" customWidth="1"/>
-    <col min="1794" max="1801" width="8.109375" style="3" customWidth="1"/>
-    <col min="1802" max="1802" width="7.33203125" style="3" customWidth="1"/>
-    <col min="1803" max="1803" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1804" max="1804" width="9.44140625" style="3" customWidth="1"/>
-    <col min="1805" max="1805" width="8.109375" style="3" customWidth="1"/>
-    <col min="1806" max="1806" width="7.77734375" style="3" customWidth="1"/>
-    <col min="1807" max="1807" width="8.21875" style="3" customWidth="1"/>
-    <col min="1808" max="1808" width="8.33203125" style="3" customWidth="1"/>
-    <col min="1809" max="1809" width="18.21875" style="3" customWidth="1"/>
-    <col min="1810" max="1810" width="16.109375" style="3" customWidth="1"/>
-    <col min="1811" max="1811" width="9.77734375" style="3" customWidth="1"/>
-    <col min="1812" max="1812" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1813" max="1813" width="6.109375" style="3" customWidth="1"/>
-    <col min="1814" max="2046" width="9" style="3"/>
-    <col min="2047" max="2047" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2048" max="2048" width="8.109375" style="3" customWidth="1"/>
-    <col min="2049" max="2049" width="9.109375" style="3" customWidth="1"/>
-    <col min="2050" max="2057" width="8.109375" style="3" customWidth="1"/>
-    <col min="2058" max="2058" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2059" max="2059" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2060" max="2060" width="9.44140625" style="3" customWidth="1"/>
-    <col min="2061" max="2061" width="8.109375" style="3" customWidth="1"/>
-    <col min="2062" max="2062" width="7.77734375" style="3" customWidth="1"/>
-    <col min="2063" max="2063" width="8.21875" style="3" customWidth="1"/>
-    <col min="2064" max="2064" width="8.33203125" style="3" customWidth="1"/>
-    <col min="2065" max="2065" width="18.21875" style="3" customWidth="1"/>
-    <col min="2066" max="2066" width="16.109375" style="3" customWidth="1"/>
-    <col min="2067" max="2067" width="9.77734375" style="3" customWidth="1"/>
-    <col min="2068" max="2068" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2069" max="2069" width="6.109375" style="3" customWidth="1"/>
-    <col min="2070" max="2302" width="9" style="3"/>
-    <col min="2303" max="2303" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2304" max="2304" width="8.109375" style="3" customWidth="1"/>
-    <col min="2305" max="2305" width="9.109375" style="3" customWidth="1"/>
-    <col min="2306" max="2313" width="8.109375" style="3" customWidth="1"/>
-    <col min="2314" max="2314" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2315" max="2315" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2316" max="2316" width="9.44140625" style="3" customWidth="1"/>
-    <col min="2317" max="2317" width="8.109375" style="3" customWidth="1"/>
-    <col min="2318" max="2318" width="7.77734375" style="3" customWidth="1"/>
-    <col min="2319" max="2319" width="8.21875" style="3" customWidth="1"/>
-    <col min="2320" max="2320" width="8.33203125" style="3" customWidth="1"/>
-    <col min="2321" max="2321" width="18.21875" style="3" customWidth="1"/>
-    <col min="2322" max="2322" width="16.109375" style="3" customWidth="1"/>
-    <col min="2323" max="2323" width="9.77734375" style="3" customWidth="1"/>
-    <col min="2324" max="2324" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2325" max="2325" width="6.109375" style="3" customWidth="1"/>
-    <col min="2326" max="2558" width="9" style="3"/>
-    <col min="2559" max="2559" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2560" max="2560" width="8.109375" style="3" customWidth="1"/>
-    <col min="2561" max="2561" width="9.109375" style="3" customWidth="1"/>
-    <col min="2562" max="2569" width="8.109375" style="3" customWidth="1"/>
-    <col min="2570" max="2570" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2571" max="2571" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2572" max="2572" width="9.44140625" style="3" customWidth="1"/>
-    <col min="2573" max="2573" width="8.109375" style="3" customWidth="1"/>
-    <col min="2574" max="2574" width="7.77734375" style="3" customWidth="1"/>
-    <col min="2575" max="2575" width="8.21875" style="3" customWidth="1"/>
-    <col min="2576" max="2576" width="8.33203125" style="3" customWidth="1"/>
-    <col min="2577" max="2577" width="18.21875" style="3" customWidth="1"/>
-    <col min="2578" max="2578" width="16.109375" style="3" customWidth="1"/>
-    <col min="2579" max="2579" width="9.77734375" style="3" customWidth="1"/>
-    <col min="2580" max="2580" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2581" max="2581" width="6.109375" style="3" customWidth="1"/>
-    <col min="2582" max="2814" width="9" style="3"/>
-    <col min="2815" max="2815" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2816" max="2816" width="8.109375" style="3" customWidth="1"/>
-    <col min="2817" max="2817" width="9.109375" style="3" customWidth="1"/>
-    <col min="2818" max="2825" width="8.109375" style="3" customWidth="1"/>
-    <col min="2826" max="2826" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2827" max="2827" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2828" max="2828" width="9.44140625" style="3" customWidth="1"/>
-    <col min="2829" max="2829" width="8.109375" style="3" customWidth="1"/>
-    <col min="2830" max="2830" width="7.77734375" style="3" customWidth="1"/>
-    <col min="2831" max="2831" width="8.21875" style="3" customWidth="1"/>
-    <col min="2832" max="2832" width="8.33203125" style="3" customWidth="1"/>
-    <col min="2833" max="2833" width="18.21875" style="3" customWidth="1"/>
-    <col min="2834" max="2834" width="16.109375" style="3" customWidth="1"/>
-    <col min="2835" max="2835" width="9.77734375" style="3" customWidth="1"/>
-    <col min="2836" max="2836" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2837" max="2837" width="6.109375" style="3" customWidth="1"/>
-    <col min="2838" max="3070" width="9" style="3"/>
-    <col min="3071" max="3071" width="4.77734375" style="3" customWidth="1"/>
-    <col min="3072" max="3072" width="8.109375" style="3" customWidth="1"/>
-    <col min="3073" max="3073" width="9.109375" style="3" customWidth="1"/>
-    <col min="3074" max="3081" width="8.109375" style="3" customWidth="1"/>
-    <col min="3082" max="3082" width="7.33203125" style="3" customWidth="1"/>
-    <col min="3083" max="3083" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3084" max="3084" width="9.44140625" style="3" customWidth="1"/>
-    <col min="3085" max="3085" width="8.109375" style="3" customWidth="1"/>
-    <col min="3086" max="3086" width="7.77734375" style="3" customWidth="1"/>
-    <col min="3087" max="3087" width="8.21875" style="3" customWidth="1"/>
-    <col min="3088" max="3088" width="8.33203125" style="3" customWidth="1"/>
-    <col min="3089" max="3089" width="18.21875" style="3" customWidth="1"/>
-    <col min="3090" max="3090" width="16.109375" style="3" customWidth="1"/>
-    <col min="3091" max="3091" width="9.77734375" style="3" customWidth="1"/>
-    <col min="3092" max="3092" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3093" max="3093" width="6.109375" style="3" customWidth="1"/>
-    <col min="3094" max="3326" width="9" style="3"/>
-    <col min="3327" max="3327" width="4.77734375" style="3" customWidth="1"/>
-    <col min="3328" max="3328" width="8.109375" style="3" customWidth="1"/>
-    <col min="3329" max="3329" width="9.109375" style="3" customWidth="1"/>
-    <col min="3330" max="3337" width="8.109375" style="3" customWidth="1"/>
-    <col min="3338" max="3338" width="7.33203125" style="3" customWidth="1"/>
-    <col min="3339" max="3339" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3340" max="3340" width="9.44140625" style="3" customWidth="1"/>
-    <col min="3341" max="3341" width="8.109375" style="3" customWidth="1"/>
-    <col min="3342" max="3342" width="7.77734375" style="3" customWidth="1"/>
-    <col min="3343" max="3343" width="8.21875" style="3" customWidth="1"/>
-    <col min="3344" max="3344" width="8.33203125" style="3" customWidth="1"/>
-    <col min="3345" max="3345" width="18.21875" style="3" customWidth="1"/>
-    <col min="3346" max="3346" width="16.109375" style="3" customWidth="1"/>
-    <col min="3347" max="3347" width="9.77734375" style="3" customWidth="1"/>
-    <col min="3348" max="3348" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3349" max="3349" width="6.109375" style="3" customWidth="1"/>
-    <col min="3350" max="3582" width="9" style="3"/>
-    <col min="3583" max="3583" width="4.77734375" style="3" customWidth="1"/>
-    <col min="3584" max="3584" width="8.109375" style="3" customWidth="1"/>
-    <col min="3585" max="3585" width="9.109375" style="3" customWidth="1"/>
-    <col min="3586" max="3593" width="8.109375" style="3" customWidth="1"/>
-    <col min="3594" max="3594" width="7.33203125" style="3" customWidth="1"/>
-    <col min="3595" max="3595" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3596" max="3596" width="9.44140625" style="3" customWidth="1"/>
-    <col min="3597" max="3597" width="8.109375" style="3" customWidth="1"/>
-    <col min="3598" max="3598" width="7.77734375" style="3" customWidth="1"/>
-    <col min="3599" max="3599" width="8.21875" style="3" customWidth="1"/>
-    <col min="3600" max="3600" width="8.33203125" style="3" customWidth="1"/>
-    <col min="3601" max="3601" width="18.21875" style="3" customWidth="1"/>
-    <col min="3602" max="3602" width="16.109375" style="3" customWidth="1"/>
-    <col min="3603" max="3603" width="9.77734375" style="3" customWidth="1"/>
-    <col min="3604" max="3604" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3605" max="3605" width="6.109375" style="3" customWidth="1"/>
-    <col min="3606" max="3838" width="9" style="3"/>
-    <col min="3839" max="3839" width="4.77734375" style="3" customWidth="1"/>
-    <col min="3840" max="3840" width="8.109375" style="3" customWidth="1"/>
-    <col min="3841" max="3841" width="9.109375" style="3" customWidth="1"/>
-    <col min="3842" max="3849" width="8.109375" style="3" customWidth="1"/>
-    <col min="3850" max="3850" width="7.33203125" style="3" customWidth="1"/>
-    <col min="3851" max="3851" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3852" max="3852" width="9.44140625" style="3" customWidth="1"/>
-    <col min="3853" max="3853" width="8.109375" style="3" customWidth="1"/>
-    <col min="3854" max="3854" width="7.77734375" style="3" customWidth="1"/>
-    <col min="3855" max="3855" width="8.21875" style="3" customWidth="1"/>
-    <col min="3856" max="3856" width="8.33203125" style="3" customWidth="1"/>
-    <col min="3857" max="3857" width="18.21875" style="3" customWidth="1"/>
-    <col min="3858" max="3858" width="16.109375" style="3" customWidth="1"/>
-    <col min="3859" max="3859" width="9.77734375" style="3" customWidth="1"/>
-    <col min="3860" max="3860" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3861" max="3861" width="6.109375" style="3" customWidth="1"/>
-    <col min="3862" max="4094" width="9" style="3"/>
-    <col min="4095" max="4095" width="4.77734375" style="3" customWidth="1"/>
-    <col min="4096" max="4096" width="8.109375" style="3" customWidth="1"/>
-    <col min="4097" max="4097" width="9.109375" style="3" customWidth="1"/>
-    <col min="4098" max="4105" width="8.109375" style="3" customWidth="1"/>
-    <col min="4106" max="4106" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4107" max="4107" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4108" max="4108" width="9.44140625" style="3" customWidth="1"/>
-    <col min="4109" max="4109" width="8.109375" style="3" customWidth="1"/>
-    <col min="4110" max="4110" width="7.77734375" style="3" customWidth="1"/>
-    <col min="4111" max="4111" width="8.21875" style="3" customWidth="1"/>
-    <col min="4112" max="4112" width="8.33203125" style="3" customWidth="1"/>
-    <col min="4113" max="4113" width="18.21875" style="3" customWidth="1"/>
-    <col min="4114" max="4114" width="16.109375" style="3" customWidth="1"/>
-    <col min="4115" max="4115" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4116" max="4116" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4117" max="4117" width="6.109375" style="3" customWidth="1"/>
-    <col min="4118" max="4350" width="9" style="3"/>
-    <col min="4351" max="4351" width="4.77734375" style="3" customWidth="1"/>
-    <col min="4352" max="4352" width="8.109375" style="3" customWidth="1"/>
-    <col min="4353" max="4353" width="9.109375" style="3" customWidth="1"/>
-    <col min="4354" max="4361" width="8.109375" style="3" customWidth="1"/>
-    <col min="4362" max="4362" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4363" max="4363" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4364" max="4364" width="9.44140625" style="3" customWidth="1"/>
-    <col min="4365" max="4365" width="8.109375" style="3" customWidth="1"/>
-    <col min="4366" max="4366" width="7.77734375" style="3" customWidth="1"/>
-    <col min="4367" max="4367" width="8.21875" style="3" customWidth="1"/>
-    <col min="4368" max="4368" width="8.33203125" style="3" customWidth="1"/>
-    <col min="4369" max="4369" width="18.21875" style="3" customWidth="1"/>
-    <col min="4370" max="4370" width="16.109375" style="3" customWidth="1"/>
-    <col min="4371" max="4371" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4372" max="4372" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4373" max="4373" width="6.109375" style="3" customWidth="1"/>
-    <col min="4374" max="4606" width="9" style="3"/>
-    <col min="4607" max="4607" width="4.77734375" style="3" customWidth="1"/>
-    <col min="4608" max="4608" width="8.109375" style="3" customWidth="1"/>
-    <col min="4609" max="4609" width="9.109375" style="3" customWidth="1"/>
-    <col min="4610" max="4617" width="8.109375" style="3" customWidth="1"/>
-    <col min="4618" max="4618" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4619" max="4619" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4620" max="4620" width="9.44140625" style="3" customWidth="1"/>
-    <col min="4621" max="4621" width="8.109375" style="3" customWidth="1"/>
-    <col min="4622" max="4622" width="7.77734375" style="3" customWidth="1"/>
-    <col min="4623" max="4623" width="8.21875" style="3" customWidth="1"/>
-    <col min="4624" max="4624" width="8.33203125" style="3" customWidth="1"/>
-    <col min="4625" max="4625" width="18.21875" style="3" customWidth="1"/>
-    <col min="4626" max="4626" width="16.109375" style="3" customWidth="1"/>
-    <col min="4627" max="4627" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4628" max="4628" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4629" max="4629" width="6.109375" style="3" customWidth="1"/>
-    <col min="4630" max="4862" width="9" style="3"/>
-    <col min="4863" max="4863" width="4.77734375" style="3" customWidth="1"/>
-    <col min="4864" max="4864" width="8.109375" style="3" customWidth="1"/>
-    <col min="4865" max="4865" width="9.109375" style="3" customWidth="1"/>
-    <col min="4866" max="4873" width="8.109375" style="3" customWidth="1"/>
-    <col min="4874" max="4874" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4875" max="4875" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4876" max="4876" width="9.44140625" style="3" customWidth="1"/>
-    <col min="4877" max="4877" width="8.109375" style="3" customWidth="1"/>
-    <col min="4878" max="4878" width="7.77734375" style="3" customWidth="1"/>
-    <col min="4879" max="4879" width="8.21875" style="3" customWidth="1"/>
-    <col min="4880" max="4880" width="8.33203125" style="3" customWidth="1"/>
-    <col min="4881" max="4881" width="18.21875" style="3" customWidth="1"/>
-    <col min="4882" max="4882" width="16.109375" style="3" customWidth="1"/>
-    <col min="4883" max="4883" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4884" max="4884" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4885" max="4885" width="6.109375" style="3" customWidth="1"/>
-    <col min="4886" max="5118" width="9" style="3"/>
-    <col min="5119" max="5119" width="4.77734375" style="3" customWidth="1"/>
-    <col min="5120" max="5120" width="8.109375" style="3" customWidth="1"/>
-    <col min="5121" max="5121" width="9.109375" style="3" customWidth="1"/>
-    <col min="5122" max="5129" width="8.109375" style="3" customWidth="1"/>
-    <col min="5130" max="5130" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5131" max="5131" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5132" max="5132" width="9.44140625" style="3" customWidth="1"/>
-    <col min="5133" max="5133" width="8.109375" style="3" customWidth="1"/>
-    <col min="5134" max="5134" width="7.77734375" style="3" customWidth="1"/>
-    <col min="5135" max="5135" width="8.21875" style="3" customWidth="1"/>
-    <col min="5136" max="5136" width="8.33203125" style="3" customWidth="1"/>
-    <col min="5137" max="5137" width="18.21875" style="3" customWidth="1"/>
-    <col min="5138" max="5138" width="16.109375" style="3" customWidth="1"/>
-    <col min="5139" max="5139" width="9.77734375" style="3" customWidth="1"/>
-    <col min="5140" max="5140" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5141" max="5141" width="6.109375" style="3" customWidth="1"/>
-    <col min="5142" max="5374" width="9" style="3"/>
-    <col min="5375" max="5375" width="4.77734375" style="3" customWidth="1"/>
-    <col min="5376" max="5376" width="8.109375" style="3" customWidth="1"/>
-    <col min="5377" max="5377" width="9.109375" style="3" customWidth="1"/>
-    <col min="5378" max="5385" width="8.109375" style="3" customWidth="1"/>
-    <col min="5386" max="5386" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5387" max="5387" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5388" max="5388" width="9.44140625" style="3" customWidth="1"/>
-    <col min="5389" max="5389" width="8.109375" style="3" customWidth="1"/>
-    <col min="5390" max="5390" width="7.77734375" style="3" customWidth="1"/>
-    <col min="5391" max="5391" width="8.21875" style="3" customWidth="1"/>
-    <col min="5392" max="5392" width="8.33203125" style="3" customWidth="1"/>
-    <col min="5393" max="5393" width="18.21875" style="3" customWidth="1"/>
-    <col min="5394" max="5394" width="16.109375" style="3" customWidth="1"/>
-    <col min="5395" max="5395" width="9.77734375" style="3" customWidth="1"/>
-    <col min="5396" max="5396" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5397" max="5397" width="6.109375" style="3" customWidth="1"/>
-    <col min="5398" max="5630" width="9" style="3"/>
-    <col min="5631" max="5631" width="4.77734375" style="3" customWidth="1"/>
-    <col min="5632" max="5632" width="8.109375" style="3" customWidth="1"/>
-    <col min="5633" max="5633" width="9.109375" style="3" customWidth="1"/>
-    <col min="5634" max="5641" width="8.109375" style="3" customWidth="1"/>
-    <col min="5642" max="5642" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5643" max="5643" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5644" max="5644" width="9.44140625" style="3" customWidth="1"/>
-    <col min="5645" max="5645" width="8.109375" style="3" customWidth="1"/>
-    <col min="5646" max="5646" width="7.77734375" style="3" customWidth="1"/>
-    <col min="5647" max="5647" width="8.21875" style="3" customWidth="1"/>
-    <col min="5648" max="5648" width="8.33203125" style="3" customWidth="1"/>
-    <col min="5649" max="5649" width="18.21875" style="3" customWidth="1"/>
-    <col min="5650" max="5650" width="16.109375" style="3" customWidth="1"/>
-    <col min="5651" max="5651" width="9.77734375" style="3" customWidth="1"/>
-    <col min="5652" max="5652" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5653" max="5653" width="6.109375" style="3" customWidth="1"/>
-    <col min="5654" max="5886" width="9" style="3"/>
-    <col min="5887" max="5887" width="4.77734375" style="3" customWidth="1"/>
-    <col min="5888" max="5888" width="8.109375" style="3" customWidth="1"/>
-    <col min="5889" max="5889" width="9.109375" style="3" customWidth="1"/>
-    <col min="5890" max="5897" width="8.109375" style="3" customWidth="1"/>
-    <col min="5898" max="5898" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5899" max="5899" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5900" max="5900" width="9.44140625" style="3" customWidth="1"/>
-    <col min="5901" max="5901" width="8.109375" style="3" customWidth="1"/>
-    <col min="5902" max="5902" width="7.77734375" style="3" customWidth="1"/>
-    <col min="5903" max="5903" width="8.21875" style="3" customWidth="1"/>
-    <col min="5904" max="5904" width="8.33203125" style="3" customWidth="1"/>
-    <col min="5905" max="5905" width="18.21875" style="3" customWidth="1"/>
-    <col min="5906" max="5906" width="16.109375" style="3" customWidth="1"/>
-    <col min="5907" max="5907" width="9.77734375" style="3" customWidth="1"/>
-    <col min="5908" max="5908" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5909" max="5909" width="6.109375" style="3" customWidth="1"/>
-    <col min="5910" max="6142" width="9" style="3"/>
-    <col min="6143" max="6143" width="4.77734375" style="3" customWidth="1"/>
-    <col min="6144" max="6144" width="8.109375" style="3" customWidth="1"/>
-    <col min="6145" max="6145" width="9.109375" style="3" customWidth="1"/>
-    <col min="6146" max="6153" width="8.109375" style="3" customWidth="1"/>
-    <col min="6154" max="6154" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6155" max="6155" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6156" max="6156" width="9.44140625" style="3" customWidth="1"/>
-    <col min="6157" max="6157" width="8.109375" style="3" customWidth="1"/>
-    <col min="6158" max="6158" width="7.77734375" style="3" customWidth="1"/>
-    <col min="6159" max="6159" width="8.21875" style="3" customWidth="1"/>
-    <col min="6160" max="6160" width="8.33203125" style="3" customWidth="1"/>
-    <col min="6161" max="6161" width="18.21875" style="3" customWidth="1"/>
-    <col min="6162" max="6162" width="16.109375" style="3" customWidth="1"/>
-    <col min="6163" max="6163" width="9.77734375" style="3" customWidth="1"/>
-    <col min="6164" max="6164" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6165" max="6165" width="6.109375" style="3" customWidth="1"/>
-    <col min="6166" max="6398" width="9" style="3"/>
-    <col min="6399" max="6399" width="4.77734375" style="3" customWidth="1"/>
-    <col min="6400" max="6400" width="8.109375" style="3" customWidth="1"/>
-    <col min="6401" max="6401" width="9.109375" style="3" customWidth="1"/>
-    <col min="6402" max="6409" width="8.109375" style="3" customWidth="1"/>
-    <col min="6410" max="6410" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6411" max="6411" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6412" max="6412" width="9.44140625" style="3" customWidth="1"/>
-    <col min="6413" max="6413" width="8.109375" style="3" customWidth="1"/>
-    <col min="6414" max="6414" width="7.77734375" style="3" customWidth="1"/>
-    <col min="6415" max="6415" width="8.21875" style="3" customWidth="1"/>
-    <col min="6416" max="6416" width="8.33203125" style="3" customWidth="1"/>
-    <col min="6417" max="6417" width="18.21875" style="3" customWidth="1"/>
-    <col min="6418" max="6418" width="16.109375" style="3" customWidth="1"/>
-    <col min="6419" max="6419" width="9.77734375" style="3" customWidth="1"/>
-    <col min="6420" max="6420" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6421" max="6421" width="6.109375" style="3" customWidth="1"/>
-    <col min="6422" max="6654" width="9" style="3"/>
-    <col min="6655" max="6655" width="4.77734375" style="3" customWidth="1"/>
-    <col min="6656" max="6656" width="8.109375" style="3" customWidth="1"/>
-    <col min="6657" max="6657" width="9.109375" style="3" customWidth="1"/>
-    <col min="6658" max="6665" width="8.109375" style="3" customWidth="1"/>
-    <col min="6666" max="6666" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6667" max="6667" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6668" max="6668" width="9.44140625" style="3" customWidth="1"/>
-    <col min="6669" max="6669" width="8.109375" style="3" customWidth="1"/>
-    <col min="6670" max="6670" width="7.77734375" style="3" customWidth="1"/>
-    <col min="6671" max="6671" width="8.21875" style="3" customWidth="1"/>
-    <col min="6672" max="6672" width="8.33203125" style="3" customWidth="1"/>
-    <col min="6673" max="6673" width="18.21875" style="3" customWidth="1"/>
-    <col min="6674" max="6674" width="16.109375" style="3" customWidth="1"/>
-    <col min="6675" max="6675" width="9.77734375" style="3" customWidth="1"/>
-    <col min="6676" max="6676" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6677" max="6677" width="6.109375" style="3" customWidth="1"/>
-    <col min="6678" max="6910" width="9" style="3"/>
-    <col min="6911" max="6911" width="4.77734375" style="3" customWidth="1"/>
-    <col min="6912" max="6912" width="8.109375" style="3" customWidth="1"/>
-    <col min="6913" max="6913" width="9.109375" style="3" customWidth="1"/>
-    <col min="6914" max="6921" width="8.109375" style="3" customWidth="1"/>
-    <col min="6922" max="6922" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6923" max="6923" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6924" max="6924" width="9.44140625" style="3" customWidth="1"/>
-    <col min="6925" max="6925" width="8.109375" style="3" customWidth="1"/>
-    <col min="6926" max="6926" width="7.77734375" style="3" customWidth="1"/>
-    <col min="6927" max="6927" width="8.21875" style="3" customWidth="1"/>
-    <col min="6928" max="6928" width="8.33203125" style="3" customWidth="1"/>
-    <col min="6929" max="6929" width="18.21875" style="3" customWidth="1"/>
-    <col min="6930" max="6930" width="16.109375" style="3" customWidth="1"/>
-    <col min="6931" max="6931" width="9.77734375" style="3" customWidth="1"/>
-    <col min="6932" max="6932" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6933" max="6933" width="6.109375" style="3" customWidth="1"/>
-    <col min="6934" max="7166" width="9" style="3"/>
-    <col min="7167" max="7167" width="4.77734375" style="3" customWidth="1"/>
-    <col min="7168" max="7168" width="8.109375" style="3" customWidth="1"/>
-    <col min="7169" max="7169" width="9.109375" style="3" customWidth="1"/>
-    <col min="7170" max="7177" width="8.109375" style="3" customWidth="1"/>
-    <col min="7178" max="7178" width="7.33203125" style="3" customWidth="1"/>
-    <col min="7179" max="7179" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7180" max="7180" width="9.44140625" style="3" customWidth="1"/>
-    <col min="7181" max="7181" width="8.109375" style="3" customWidth="1"/>
-    <col min="7182" max="7182" width="7.77734375" style="3" customWidth="1"/>
-    <col min="7183" max="7183" width="8.21875" style="3" customWidth="1"/>
-    <col min="7184" max="7184" width="8.33203125" style="3" customWidth="1"/>
-    <col min="7185" max="7185" width="18.21875" style="3" customWidth="1"/>
-    <col min="7186" max="7186" width="16.109375" style="3" customWidth="1"/>
-    <col min="7187" max="7187" width="9.77734375" style="3" customWidth="1"/>
-    <col min="7188" max="7188" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7189" max="7189" width="6.109375" style="3" customWidth="1"/>
-    <col min="7190" max="7422" width="9" style="3"/>
-    <col min="7423" max="7423" width="4.77734375" style="3" customWidth="1"/>
-    <col min="7424" max="7424" width="8.109375" style="3" customWidth="1"/>
-    <col min="7425" max="7425" width="9.109375" style="3" customWidth="1"/>
-    <col min="7426" max="7433" width="8.109375" style="3" customWidth="1"/>
-    <col min="7434" max="7434" width="7.33203125" style="3" customWidth="1"/>
-    <col min="7435" max="7435" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7436" max="7436" width="9.44140625" style="3" customWidth="1"/>
-    <col min="7437" max="7437" width="8.109375" style="3" customWidth="1"/>
-    <col min="7438" max="7438" width="7.77734375" style="3" customWidth="1"/>
-    <col min="7439" max="7439" width="8.21875" style="3" customWidth="1"/>
-    <col min="7440" max="7440" width="8.33203125" style="3" customWidth="1"/>
-    <col min="7441" max="7441" width="18.21875" style="3" customWidth="1"/>
-    <col min="7442" max="7442" width="16.109375" style="3" customWidth="1"/>
-    <col min="7443" max="7443" width="9.77734375" style="3" customWidth="1"/>
-    <col min="7444" max="7444" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7445" max="7445" width="6.109375" style="3" customWidth="1"/>
-    <col min="7446" max="7678" width="9" style="3"/>
-    <col min="7679" max="7679" width="4.77734375" style="3" customWidth="1"/>
-    <col min="7680" max="7680" width="8.109375" style="3" customWidth="1"/>
-    <col min="7681" max="7681" width="9.109375" style="3" customWidth="1"/>
-    <col min="7682" max="7689" width="8.109375" style="3" customWidth="1"/>
-    <col min="7690" max="7690" width="7.33203125" style="3" customWidth="1"/>
-    <col min="7691" max="7691" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7692" max="7692" width="9.44140625" style="3" customWidth="1"/>
-    <col min="7693" max="7693" width="8.109375" style="3" customWidth="1"/>
-    <col min="7694" max="7694" width="7.77734375" style="3" customWidth="1"/>
-    <col min="7695" max="7695" width="8.21875" style="3" customWidth="1"/>
-    <col min="7696" max="7696" width="8.33203125" style="3" customWidth="1"/>
-    <col min="7697" max="7697" width="18.21875" style="3" customWidth="1"/>
-    <col min="7698" max="7698" width="16.109375" style="3" customWidth="1"/>
-    <col min="7699" max="7699" width="9.77734375" style="3" customWidth="1"/>
-    <col min="7700" max="7700" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7701" max="7701" width="6.109375" style="3" customWidth="1"/>
-    <col min="7702" max="7934" width="9" style="3"/>
-    <col min="7935" max="7935" width="4.77734375" style="3" customWidth="1"/>
-    <col min="7936" max="7936" width="8.109375" style="3" customWidth="1"/>
-    <col min="7937" max="7937" width="9.109375" style="3" customWidth="1"/>
-    <col min="7938" max="7945" width="8.109375" style="3" customWidth="1"/>
-    <col min="7946" max="7946" width="7.33203125" style="3" customWidth="1"/>
-    <col min="7947" max="7947" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7948" max="7948" width="9.44140625" style="3" customWidth="1"/>
-    <col min="7949" max="7949" width="8.109375" style="3" customWidth="1"/>
-    <col min="7950" max="7950" width="7.77734375" style="3" customWidth="1"/>
-    <col min="7951" max="7951" width="8.21875" style="3" customWidth="1"/>
-    <col min="7952" max="7952" width="8.33203125" style="3" customWidth="1"/>
-    <col min="7953" max="7953" width="18.21875" style="3" customWidth="1"/>
-    <col min="7954" max="7954" width="16.109375" style="3" customWidth="1"/>
-    <col min="7955" max="7955" width="9.77734375" style="3" customWidth="1"/>
-    <col min="7956" max="7956" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7957" max="7957" width="6.109375" style="3" customWidth="1"/>
-    <col min="7958" max="8190" width="9" style="3"/>
-    <col min="8191" max="8191" width="4.77734375" style="3" customWidth="1"/>
-    <col min="8192" max="8192" width="8.109375" style="3" customWidth="1"/>
-    <col min="8193" max="8193" width="9.109375" style="3" customWidth="1"/>
-    <col min="8194" max="8201" width="8.109375" style="3" customWidth="1"/>
-    <col min="8202" max="8202" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8203" max="8203" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8204" max="8204" width="9.44140625" style="3" customWidth="1"/>
-    <col min="8205" max="8205" width="8.109375" style="3" customWidth="1"/>
-    <col min="8206" max="8206" width="7.77734375" style="3" customWidth="1"/>
-    <col min="8207" max="8207" width="8.21875" style="3" customWidth="1"/>
-    <col min="8208" max="8208" width="8.33203125" style="3" customWidth="1"/>
-    <col min="8209" max="8209" width="18.21875" style="3" customWidth="1"/>
-    <col min="8210" max="8210" width="16.109375" style="3" customWidth="1"/>
-    <col min="8211" max="8211" width="9.77734375" style="3" customWidth="1"/>
-    <col min="8212" max="8212" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8213" max="8213" width="6.109375" style="3" customWidth="1"/>
-    <col min="8214" max="8446" width="9" style="3"/>
-    <col min="8447" max="8447" width="4.77734375" style="3" customWidth="1"/>
-    <col min="8448" max="8448" width="8.109375" style="3" customWidth="1"/>
-    <col min="8449" max="8449" width="9.109375" style="3" customWidth="1"/>
-    <col min="8450" max="8457" width="8.109375" style="3" customWidth="1"/>
-    <col min="8458" max="8458" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8459" max="8459" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8460" max="8460" width="9.44140625" style="3" customWidth="1"/>
-    <col min="8461" max="8461" width="8.109375" style="3" customWidth="1"/>
-    <col min="8462" max="8462" width="7.77734375" style="3" customWidth="1"/>
-    <col min="8463" max="8463" width="8.21875" style="3" customWidth="1"/>
-    <col min="8464" max="8464" width="8.33203125" style="3" customWidth="1"/>
-    <col min="8465" max="8465" width="18.21875" style="3" customWidth="1"/>
-    <col min="8466" max="8466" width="16.109375" style="3" customWidth="1"/>
-    <col min="8467" max="8467" width="9.77734375" style="3" customWidth="1"/>
-    <col min="8468" max="8468" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8469" max="8469" width="6.109375" style="3" customWidth="1"/>
-    <col min="8470" max="8702" width="9" style="3"/>
-    <col min="8703" max="8703" width="4.77734375" style="3" customWidth="1"/>
-    <col min="8704" max="8704" width="8.109375" style="3" customWidth="1"/>
-    <col min="8705" max="8705" width="9.109375" style="3" customWidth="1"/>
-    <col min="8706" max="8713" width="8.109375" style="3" customWidth="1"/>
-    <col min="8714" max="8714" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8715" max="8715" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8716" max="8716" width="9.44140625" style="3" customWidth="1"/>
-    <col min="8717" max="8717" width="8.109375" style="3" customWidth="1"/>
-    <col min="8718" max="8718" width="7.77734375" style="3" customWidth="1"/>
-    <col min="8719" max="8719" width="8.21875" style="3" customWidth="1"/>
-    <col min="8720" max="8720" width="8.33203125" style="3" customWidth="1"/>
-    <col min="8721" max="8721" width="18.21875" style="3" customWidth="1"/>
-    <col min="8722" max="8722" width="16.109375" style="3" customWidth="1"/>
-    <col min="8723" max="8723" width="9.77734375" style="3" customWidth="1"/>
-    <col min="8724" max="8724" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8725" max="8725" width="6.109375" style="3" customWidth="1"/>
-    <col min="8726" max="8958" width="9" style="3"/>
-    <col min="8959" max="8959" width="4.77734375" style="3" customWidth="1"/>
-    <col min="8960" max="8960" width="8.109375" style="3" customWidth="1"/>
-    <col min="8961" max="8961" width="9.109375" style="3" customWidth="1"/>
-    <col min="8962" max="8969" width="8.109375" style="3" customWidth="1"/>
-    <col min="8970" max="8970" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8971" max="8971" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8972" max="8972" width="9.44140625" style="3" customWidth="1"/>
-    <col min="8973" max="8973" width="8.109375" style="3" customWidth="1"/>
-    <col min="8974" max="8974" width="7.77734375" style="3" customWidth="1"/>
-    <col min="8975" max="8975" width="8.21875" style="3" customWidth="1"/>
-    <col min="8976" max="8976" width="8.33203125" style="3" customWidth="1"/>
-    <col min="8977" max="8977" width="18.21875" style="3" customWidth="1"/>
-    <col min="8978" max="8978" width="16.109375" style="3" customWidth="1"/>
-    <col min="8979" max="8979" width="9.77734375" style="3" customWidth="1"/>
-    <col min="8980" max="8980" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8981" max="8981" width="6.109375" style="3" customWidth="1"/>
-    <col min="8982" max="9214" width="9" style="3"/>
-    <col min="9215" max="9215" width="4.77734375" style="3" customWidth="1"/>
-    <col min="9216" max="9216" width="8.109375" style="3" customWidth="1"/>
-    <col min="9217" max="9217" width="9.109375" style="3" customWidth="1"/>
-    <col min="9218" max="9225" width="8.109375" style="3" customWidth="1"/>
-    <col min="9226" max="9226" width="7.33203125" style="3" customWidth="1"/>
-    <col min="9227" max="9227" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9228" max="9228" width="9.44140625" style="3" customWidth="1"/>
-    <col min="9229" max="9229" width="8.109375" style="3" customWidth="1"/>
-    <col min="9230" max="9230" width="7.77734375" style="3" customWidth="1"/>
-    <col min="9231" max="9231" width="8.21875" style="3" customWidth="1"/>
-    <col min="9232" max="9232" width="8.33203125" style="3" customWidth="1"/>
-    <col min="9233" max="9233" width="18.21875" style="3" customWidth="1"/>
-    <col min="9234" max="9234" width="16.109375" style="3" customWidth="1"/>
-    <col min="9235" max="9235" width="9.77734375" style="3" customWidth="1"/>
-    <col min="9236" max="9236" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9237" max="9237" width="6.109375" style="3" customWidth="1"/>
-    <col min="9238" max="9470" width="9" style="3"/>
-    <col min="9471" max="9471" width="4.77734375" style="3" customWidth="1"/>
-    <col min="9472" max="9472" width="8.109375" style="3" customWidth="1"/>
-    <col min="9473" max="9473" width="9.109375" style="3" customWidth="1"/>
-    <col min="9474" max="9481" width="8.109375" style="3" customWidth="1"/>
-    <col min="9482" max="9482" width="7.33203125" style="3" customWidth="1"/>
-    <col min="9483" max="9483" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9484" max="9484" width="9.44140625" style="3" customWidth="1"/>
-    <col min="9485" max="9485" width="8.109375" style="3" customWidth="1"/>
-    <col min="9486" max="9486" width="7.77734375" style="3" customWidth="1"/>
-    <col min="9487" max="9487" width="8.21875" style="3" customWidth="1"/>
-    <col min="9488" max="9488" width="8.33203125" style="3" customWidth="1"/>
-    <col min="9489" max="9489" width="18.21875" style="3" customWidth="1"/>
-    <col min="9490" max="9490" width="16.109375" style="3" customWidth="1"/>
-    <col min="9491" max="9491" width="9.77734375" style="3" customWidth="1"/>
-    <col min="9492" max="9492" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9493" max="9493" width="6.109375" style="3" customWidth="1"/>
-    <col min="9494" max="9726" width="9" style="3"/>
-    <col min="9727" max="9727" width="4.77734375" style="3" customWidth="1"/>
-    <col min="9728" max="9728" width="8.109375" style="3" customWidth="1"/>
-    <col min="9729" max="9729" width="9.109375" style="3" customWidth="1"/>
-    <col min="9730" max="9737" width="8.109375" style="3" customWidth="1"/>
-    <col min="9738" max="9738" width="7.33203125" style="3" customWidth="1"/>
-    <col min="9739" max="9739" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9740" max="9740" width="9.44140625" style="3" customWidth="1"/>
-    <col min="9741" max="9741" width="8.109375" style="3" customWidth="1"/>
-    <col min="9742" max="9742" width="7.77734375" style="3" customWidth="1"/>
-    <col min="9743" max="9743" width="8.21875" style="3" customWidth="1"/>
-    <col min="9744" max="9744" width="8.33203125" style="3" customWidth="1"/>
-    <col min="9745" max="9745" width="18.21875" style="3" customWidth="1"/>
-    <col min="9746" max="9746" width="16.109375" style="3" customWidth="1"/>
-    <col min="9747" max="9747" width="9.77734375" style="3" customWidth="1"/>
-    <col min="9748" max="9748" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9749" max="9749" width="6.109375" style="3" customWidth="1"/>
-    <col min="9750" max="9982" width="9" style="3"/>
-    <col min="9983" max="9983" width="4.77734375" style="3" customWidth="1"/>
-    <col min="9984" max="9984" width="8.109375" style="3" customWidth="1"/>
-    <col min="9985" max="9985" width="9.109375" style="3" customWidth="1"/>
-    <col min="9986" max="9993" width="8.109375" style="3" customWidth="1"/>
-    <col min="9994" max="9994" width="7.33203125" style="3" customWidth="1"/>
-    <col min="9995" max="9995" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9996" max="9996" width="9.44140625" style="3" customWidth="1"/>
-    <col min="9997" max="9997" width="8.109375" style="3" customWidth="1"/>
-    <col min="9998" max="9998" width="7.77734375" style="3" customWidth="1"/>
-    <col min="9999" max="9999" width="8.21875" style="3" customWidth="1"/>
-    <col min="10000" max="10000" width="8.33203125" style="3" customWidth="1"/>
-    <col min="10001" max="10001" width="18.21875" style="3" customWidth="1"/>
-    <col min="10002" max="10002" width="16.109375" style="3" customWidth="1"/>
-    <col min="10003" max="10003" width="9.77734375" style="3" customWidth="1"/>
-    <col min="10004" max="10004" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10005" max="10005" width="6.109375" style="3" customWidth="1"/>
-    <col min="10006" max="10238" width="9" style="3"/>
-    <col min="10239" max="10239" width="4.77734375" style="3" customWidth="1"/>
-    <col min="10240" max="10240" width="8.109375" style="3" customWidth="1"/>
-    <col min="10241" max="10241" width="9.109375" style="3" customWidth="1"/>
-    <col min="10242" max="10249" width="8.109375" style="3" customWidth="1"/>
-    <col min="10250" max="10250" width="7.33203125" style="3" customWidth="1"/>
-    <col min="10251" max="10251" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10252" max="10252" width="9.44140625" style="3" customWidth="1"/>
-    <col min="10253" max="10253" width="8.109375" style="3" customWidth="1"/>
-    <col min="10254" max="10254" width="7.77734375" style="3" customWidth="1"/>
-    <col min="10255" max="10255" width="8.21875" style="3" customWidth="1"/>
-    <col min="10256" max="10256" width="8.33203125" style="3" customWidth="1"/>
-    <col min="10257" max="10257" width="18.21875" style="3" customWidth="1"/>
-    <col min="10258" max="10258" width="16.109375" style="3" customWidth="1"/>
-    <col min="10259" max="10259" width="9.77734375" style="3" customWidth="1"/>
-    <col min="10260" max="10260" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10261" max="10261" width="6.109375" style="3" customWidth="1"/>
-    <col min="10262" max="10494" width="9" style="3"/>
-    <col min="10495" max="10495" width="4.77734375" style="3" customWidth="1"/>
-    <col min="10496" max="10496" width="8.109375" style="3" customWidth="1"/>
-    <col min="10497" max="10497" width="9.109375" style="3" customWidth="1"/>
-    <col min="10498" max="10505" width="8.109375" style="3" customWidth="1"/>
-    <col min="10506" max="10506" width="7.33203125" style="3" customWidth="1"/>
-    <col min="10507" max="10507" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10508" max="10508" width="9.44140625" style="3" customWidth="1"/>
-    <col min="10509" max="10509" width="8.109375" style="3" customWidth="1"/>
-    <col min="10510" max="10510" width="7.77734375" style="3" customWidth="1"/>
-    <col min="10511" max="10511" width="8.21875" style="3" customWidth="1"/>
-    <col min="10512" max="10512" width="8.33203125" style="3" customWidth="1"/>
-    <col min="10513" max="10513" width="18.21875" style="3" customWidth="1"/>
-    <col min="10514" max="10514" width="16.109375" style="3" customWidth="1"/>
-    <col min="10515" max="10515" width="9.77734375" style="3" customWidth="1"/>
-    <col min="10516" max="10516" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10517" max="10517" width="6.109375" style="3" customWidth="1"/>
-    <col min="10518" max="10750" width="9" style="3"/>
-    <col min="10751" max="10751" width="4.77734375" style="3" customWidth="1"/>
-    <col min="10752" max="10752" width="8.109375" style="3" customWidth="1"/>
-    <col min="10753" max="10753" width="9.109375" style="3" customWidth="1"/>
-    <col min="10754" max="10761" width="8.109375" style="3" customWidth="1"/>
-    <col min="10762" max="10762" width="7.33203125" style="3" customWidth="1"/>
-    <col min="10763" max="10763" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10764" max="10764" width="9.44140625" style="3" customWidth="1"/>
-    <col min="10765" max="10765" width="8.109375" style="3" customWidth="1"/>
-    <col min="10766" max="10766" width="7.77734375" style="3" customWidth="1"/>
-    <col min="10767" max="10767" width="8.21875" style="3" customWidth="1"/>
-    <col min="10768" max="10768" width="8.33203125" style="3" customWidth="1"/>
-    <col min="10769" max="10769" width="18.21875" style="3" customWidth="1"/>
-    <col min="10770" max="10770" width="16.109375" style="3" customWidth="1"/>
-    <col min="10771" max="10771" width="9.77734375" style="3" customWidth="1"/>
-    <col min="10772" max="10772" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10773" max="10773" width="6.109375" style="3" customWidth="1"/>
-    <col min="10774" max="11006" width="9" style="3"/>
-    <col min="11007" max="11007" width="4.77734375" style="3" customWidth="1"/>
-    <col min="11008" max="11008" width="8.109375" style="3" customWidth="1"/>
-    <col min="11009" max="11009" width="9.109375" style="3" customWidth="1"/>
-    <col min="11010" max="11017" width="8.109375" style="3" customWidth="1"/>
-    <col min="11018" max="11018" width="7.33203125" style="3" customWidth="1"/>
-    <col min="11019" max="11019" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11020" max="11020" width="9.44140625" style="3" customWidth="1"/>
-    <col min="11021" max="11021" width="8.109375" style="3" customWidth="1"/>
-    <col min="11022" max="11022" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11023" max="11023" width="8.21875" style="3" customWidth="1"/>
-    <col min="11024" max="11024" width="8.33203125" style="3" customWidth="1"/>
-    <col min="11025" max="11025" width="18.21875" style="3" customWidth="1"/>
-    <col min="11026" max="11026" width="16.109375" style="3" customWidth="1"/>
-    <col min="11027" max="11027" width="9.77734375" style="3" customWidth="1"/>
-    <col min="11028" max="11028" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11029" max="11029" width="6.109375" style="3" customWidth="1"/>
-    <col min="11030" max="11262" width="9" style="3"/>
-    <col min="11263" max="11263" width="4.77734375" style="3" customWidth="1"/>
-    <col min="11264" max="11264" width="8.109375" style="3" customWidth="1"/>
-    <col min="11265" max="11265" width="9.109375" style="3" customWidth="1"/>
-    <col min="11266" max="11273" width="8.109375" style="3" customWidth="1"/>
-    <col min="11274" max="11274" width="7.33203125" style="3" customWidth="1"/>
-    <col min="11275" max="11275" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11276" max="11276" width="9.44140625" style="3" customWidth="1"/>
-    <col min="11277" max="11277" width="8.109375" style="3" customWidth="1"/>
-    <col min="11278" max="11278" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11279" max="11279" width="8.21875" style="3" customWidth="1"/>
-    <col min="11280" max="11280" width="8.33203125" style="3" customWidth="1"/>
-    <col min="11281" max="11281" width="18.21875" style="3" customWidth="1"/>
-    <col min="11282" max="11282" width="16.109375" style="3" customWidth="1"/>
-    <col min="11283" max="11283" width="9.77734375" style="3" customWidth="1"/>
-    <col min="11284" max="11284" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11285" max="11285" width="6.109375" style="3" customWidth="1"/>
-    <col min="11286" max="11518" width="9" style="3"/>
-    <col min="11519" max="11519" width="4.77734375" style="3" customWidth="1"/>
-    <col min="11520" max="11520" width="8.109375" style="3" customWidth="1"/>
-    <col min="11521" max="11521" width="9.109375" style="3" customWidth="1"/>
-    <col min="11522" max="11529" width="8.109375" style="3" customWidth="1"/>
-    <col min="11530" max="11530" width="7.33203125" style="3" customWidth="1"/>
-    <col min="11531" max="11531" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11532" max="11532" width="9.44140625" style="3" customWidth="1"/>
-    <col min="11533" max="11533" width="8.109375" style="3" customWidth="1"/>
-    <col min="11534" max="11534" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11535" max="11535" width="8.21875" style="3" customWidth="1"/>
-    <col min="11536" max="11536" width="8.33203125" style="3" customWidth="1"/>
-    <col min="11537" max="11537" width="18.21875" style="3" customWidth="1"/>
-    <col min="11538" max="11538" width="16.109375" style="3" customWidth="1"/>
-    <col min="11539" max="11539" width="9.77734375" style="3" customWidth="1"/>
-    <col min="11540" max="11540" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11541" max="11541" width="6.109375" style="3" customWidth="1"/>
-    <col min="11542" max="11774" width="9" style="3"/>
-    <col min="11775" max="11775" width="4.77734375" style="3" customWidth="1"/>
-    <col min="11776" max="11776" width="8.109375" style="3" customWidth="1"/>
-    <col min="11777" max="11777" width="9.109375" style="3" customWidth="1"/>
-    <col min="11778" max="11785" width="8.109375" style="3" customWidth="1"/>
-    <col min="11786" max="11786" width="7.33203125" style="3" customWidth="1"/>
-    <col min="11787" max="11787" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11788" max="11788" width="9.44140625" style="3" customWidth="1"/>
-    <col min="11789" max="11789" width="8.109375" style="3" customWidth="1"/>
-    <col min="11790" max="11790" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11791" max="11791" width="8.21875" style="3" customWidth="1"/>
-    <col min="11792" max="11792" width="8.33203125" style="3" customWidth="1"/>
-    <col min="11793" max="11793" width="18.21875" style="3" customWidth="1"/>
-    <col min="11794" max="11794" width="16.109375" style="3" customWidth="1"/>
-    <col min="11795" max="11795" width="9.77734375" style="3" customWidth="1"/>
-    <col min="11796" max="11796" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11797" max="11797" width="6.109375" style="3" customWidth="1"/>
-    <col min="11798" max="12030" width="9" style="3"/>
-    <col min="12031" max="12031" width="4.77734375" style="3" customWidth="1"/>
-    <col min="12032" max="12032" width="8.109375" style="3" customWidth="1"/>
-    <col min="12033" max="12033" width="9.109375" style="3" customWidth="1"/>
-    <col min="12034" max="12041" width="8.109375" style="3" customWidth="1"/>
-    <col min="12042" max="12042" width="7.33203125" style="3" customWidth="1"/>
-    <col min="12043" max="12043" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12044" max="12044" width="9.44140625" style="3" customWidth="1"/>
-    <col min="12045" max="12045" width="8.109375" style="3" customWidth="1"/>
-    <col min="12046" max="12046" width="7.77734375" style="3" customWidth="1"/>
-    <col min="12047" max="12047" width="8.21875" style="3" customWidth="1"/>
-    <col min="12048" max="12048" width="8.33203125" style="3" customWidth="1"/>
-    <col min="12049" max="12049" width="18.21875" style="3" customWidth="1"/>
-    <col min="12050" max="12050" width="16.109375" style="3" customWidth="1"/>
-    <col min="12051" max="12051" width="9.77734375" style="3" customWidth="1"/>
-    <col min="12052" max="12052" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12053" max="12053" width="6.109375" style="3" customWidth="1"/>
-    <col min="12054" max="12286" width="9" style="3"/>
-    <col min="12287" max="12287" width="4.77734375" style="3" customWidth="1"/>
-    <col min="12288" max="12288" width="8.109375" style="3" customWidth="1"/>
-    <col min="12289" max="12289" width="9.109375" style="3" customWidth="1"/>
-    <col min="12290" max="12297" width="8.109375" style="3" customWidth="1"/>
-    <col min="12298" max="12298" width="7.33203125" style="3" customWidth="1"/>
-    <col min="12299" max="12299" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12300" max="12300" width="9.44140625" style="3" customWidth="1"/>
-    <col min="12301" max="12301" width="8.109375" style="3" customWidth="1"/>
-    <col min="12302" max="12302" width="7.77734375" style="3" customWidth="1"/>
-    <col min="12303" max="12303" width="8.21875" style="3" customWidth="1"/>
-    <col min="12304" max="12304" width="8.33203125" style="3" customWidth="1"/>
-    <col min="12305" max="12305" width="18.21875" style="3" customWidth="1"/>
-    <col min="12306" max="12306" width="16.109375" style="3" customWidth="1"/>
-    <col min="12307" max="12307" width="9.77734375" style="3" customWidth="1"/>
-    <col min="12308" max="12308" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12309" max="12309" width="6.109375" style="3" customWidth="1"/>
-    <col min="12310" max="12542" width="9" style="3"/>
-    <col min="12543" max="12543" width="4.77734375" style="3" customWidth="1"/>
-    <col min="12544" max="12544" width="8.109375" style="3" customWidth="1"/>
-    <col min="12545" max="12545" width="9.109375" style="3" customWidth="1"/>
-    <col min="12546" max="12553" width="8.109375" style="3" customWidth="1"/>
-    <col min="12554" max="12554" width="7.33203125" style="3" customWidth="1"/>
-    <col min="12555" max="12555" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12556" max="12556" width="9.44140625" style="3" customWidth="1"/>
-    <col min="12557" max="12557" width="8.109375" style="3" customWidth="1"/>
-    <col min="12558" max="12558" width="7.77734375" style="3" customWidth="1"/>
-    <col min="12559" max="12559" width="8.21875" style="3" customWidth="1"/>
-    <col min="12560" max="12560" width="8.33203125" style="3" customWidth="1"/>
-    <col min="12561" max="12561" width="18.21875" style="3" customWidth="1"/>
-    <col min="12562" max="12562" width="16.109375" style="3" customWidth="1"/>
-    <col min="12563" max="12563" width="9.77734375" style="3" customWidth="1"/>
-    <col min="12564" max="12564" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12565" max="12565" width="6.109375" style="3" customWidth="1"/>
-    <col min="12566" max="12798" width="9" style="3"/>
-    <col min="12799" max="12799" width="4.77734375" style="3" customWidth="1"/>
-    <col min="12800" max="12800" width="8.109375" style="3" customWidth="1"/>
-    <col min="12801" max="12801" width="9.109375" style="3" customWidth="1"/>
-    <col min="12802" max="12809" width="8.109375" style="3" customWidth="1"/>
-    <col min="12810" max="12810" width="7.33203125" style="3" customWidth="1"/>
-    <col min="12811" max="12811" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12812" max="12812" width="9.44140625" style="3" customWidth="1"/>
-    <col min="12813" max="12813" width="8.109375" style="3" customWidth="1"/>
-    <col min="12814" max="12814" width="7.77734375" style="3" customWidth="1"/>
-    <col min="12815" max="12815" width="8.21875" style="3" customWidth="1"/>
-    <col min="12816" max="12816" width="8.33203125" style="3" customWidth="1"/>
-    <col min="12817" max="12817" width="18.21875" style="3" customWidth="1"/>
-    <col min="12818" max="12818" width="16.109375" style="3" customWidth="1"/>
-    <col min="12819" max="12819" width="9.77734375" style="3" customWidth="1"/>
-    <col min="12820" max="12820" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12821" max="12821" width="6.109375" style="3" customWidth="1"/>
-    <col min="12822" max="13054" width="9" style="3"/>
-    <col min="13055" max="13055" width="4.77734375" style="3" customWidth="1"/>
-    <col min="13056" max="13056" width="8.109375" style="3" customWidth="1"/>
-    <col min="13057" max="13057" width="9.109375" style="3" customWidth="1"/>
-    <col min="13058" max="13065" width="8.109375" style="3" customWidth="1"/>
-    <col min="13066" max="13066" width="7.33203125" style="3" customWidth="1"/>
-    <col min="13067" max="13067" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13068" max="13068" width="9.44140625" style="3" customWidth="1"/>
-    <col min="13069" max="13069" width="8.109375" style="3" customWidth="1"/>
-    <col min="13070" max="13070" width="7.77734375" style="3" customWidth="1"/>
-    <col min="13071" max="13071" width="8.21875" style="3" customWidth="1"/>
-    <col min="13072" max="13072" width="8.33203125" style="3" customWidth="1"/>
-    <col min="13073" max="13073" width="18.21875" style="3" customWidth="1"/>
-    <col min="13074" max="13074" width="16.109375" style="3" customWidth="1"/>
-    <col min="13075" max="13075" width="9.77734375" style="3" customWidth="1"/>
-    <col min="13076" max="13076" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13077" max="13077" width="6.109375" style="3" customWidth="1"/>
-    <col min="13078" max="13310" width="9" style="3"/>
-    <col min="13311" max="13311" width="4.77734375" style="3" customWidth="1"/>
-    <col min="13312" max="13312" width="8.109375" style="3" customWidth="1"/>
-    <col min="13313" max="13313" width="9.109375" style="3" customWidth="1"/>
-    <col min="13314" max="13321" width="8.109375" style="3" customWidth="1"/>
-    <col min="13322" max="13322" width="7.33203125" style="3" customWidth="1"/>
-    <col min="13323" max="13323" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13324" max="13324" width="9.44140625" style="3" customWidth="1"/>
-    <col min="13325" max="13325" width="8.109375" style="3" customWidth="1"/>
-    <col min="13326" max="13326" width="7.77734375" style="3" customWidth="1"/>
-    <col min="13327" max="13327" width="8.21875" style="3" customWidth="1"/>
-    <col min="13328" max="13328" width="8.33203125" style="3" customWidth="1"/>
-    <col min="13329" max="13329" width="18.21875" style="3" customWidth="1"/>
-    <col min="13330" max="13330" width="16.109375" style="3" customWidth="1"/>
-    <col min="13331" max="13331" width="9.77734375" style="3" customWidth="1"/>
-    <col min="13332" max="13332" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13333" max="13333" width="6.109375" style="3" customWidth="1"/>
-    <col min="13334" max="13566" width="9" style="3"/>
-    <col min="13567" max="13567" width="4.77734375" style="3" customWidth="1"/>
-    <col min="13568" max="13568" width="8.109375" style="3" customWidth="1"/>
-    <col min="13569" max="13569" width="9.109375" style="3" customWidth="1"/>
-    <col min="13570" max="13577" width="8.109375" style="3" customWidth="1"/>
-    <col min="13578" max="13578" width="7.33203125" style="3" customWidth="1"/>
-    <col min="13579" max="13579" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13580" max="13580" width="9.44140625" style="3" customWidth="1"/>
-    <col min="13581" max="13581" width="8.109375" style="3" customWidth="1"/>
-    <col min="13582" max="13582" width="7.77734375" style="3" customWidth="1"/>
-    <col min="13583" max="13583" width="8.21875" style="3" customWidth="1"/>
-    <col min="13584" max="13584" width="8.33203125" style="3" customWidth="1"/>
-    <col min="13585" max="13585" width="18.21875" style="3" customWidth="1"/>
-    <col min="13586" max="13586" width="16.109375" style="3" customWidth="1"/>
-    <col min="13587" max="13587" width="9.77734375" style="3" customWidth="1"/>
-    <col min="13588" max="13588" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13589" max="13589" width="6.109375" style="3" customWidth="1"/>
-    <col min="13590" max="13822" width="9" style="3"/>
-    <col min="13823" max="13823" width="4.77734375" style="3" customWidth="1"/>
-    <col min="13824" max="13824" width="8.109375" style="3" customWidth="1"/>
-    <col min="13825" max="13825" width="9.109375" style="3" customWidth="1"/>
-    <col min="13826" max="13833" width="8.109375" style="3" customWidth="1"/>
-    <col min="13834" max="13834" width="7.33203125" style="3" customWidth="1"/>
-    <col min="13835" max="13835" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13836" max="13836" width="9.44140625" style="3" customWidth="1"/>
-    <col min="13837" max="13837" width="8.109375" style="3" customWidth="1"/>
-    <col min="13838" max="13838" width="7.77734375" style="3" customWidth="1"/>
-    <col min="13839" max="13839" width="8.21875" style="3" customWidth="1"/>
-    <col min="13840" max="13840" width="8.33203125" style="3" customWidth="1"/>
-    <col min="13841" max="13841" width="18.21875" style="3" customWidth="1"/>
-    <col min="13842" max="13842" width="16.109375" style="3" customWidth="1"/>
-    <col min="13843" max="13843" width="9.77734375" style="3" customWidth="1"/>
-    <col min="13844" max="13844" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13845" max="13845" width="6.109375" style="3" customWidth="1"/>
-    <col min="13846" max="14078" width="9" style="3"/>
-    <col min="14079" max="14079" width="4.77734375" style="3" customWidth="1"/>
-    <col min="14080" max="14080" width="8.109375" style="3" customWidth="1"/>
-    <col min="14081" max="14081" width="9.109375" style="3" customWidth="1"/>
-    <col min="14082" max="14089" width="8.109375" style="3" customWidth="1"/>
-    <col min="14090" max="14090" width="7.33203125" style="3" customWidth="1"/>
-    <col min="14091" max="14091" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14092" max="14092" width="9.44140625" style="3" customWidth="1"/>
-    <col min="14093" max="14093" width="8.109375" style="3" customWidth="1"/>
-    <col min="14094" max="14094" width="7.77734375" style="3" customWidth="1"/>
-    <col min="14095" max="14095" width="8.21875" style="3" customWidth="1"/>
-    <col min="14096" max="14096" width="8.33203125" style="3" customWidth="1"/>
-    <col min="14097" max="14097" width="18.21875" style="3" customWidth="1"/>
-    <col min="14098" max="14098" width="16.109375" style="3" customWidth="1"/>
-    <col min="14099" max="14099" width="9.77734375" style="3" customWidth="1"/>
-    <col min="14100" max="14100" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14101" max="14101" width="6.109375" style="3" customWidth="1"/>
-    <col min="14102" max="14334" width="9" style="3"/>
-    <col min="14335" max="14335" width="4.77734375" style="3" customWidth="1"/>
-    <col min="14336" max="14336" width="8.109375" style="3" customWidth="1"/>
-    <col min="14337" max="14337" width="9.109375" style="3" customWidth="1"/>
-    <col min="14338" max="14345" width="8.109375" style="3" customWidth="1"/>
-    <col min="14346" max="14346" width="7.33203125" style="3" customWidth="1"/>
-    <col min="14347" max="14347" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14348" max="14348" width="9.44140625" style="3" customWidth="1"/>
-    <col min="14349" max="14349" width="8.109375" style="3" customWidth="1"/>
-    <col min="14350" max="14350" width="7.77734375" style="3" customWidth="1"/>
-    <col min="14351" max="14351" width="8.21875" style="3" customWidth="1"/>
-    <col min="14352" max="14352" width="8.33203125" style="3" customWidth="1"/>
-    <col min="14353" max="14353" width="18.21875" style="3" customWidth="1"/>
-    <col min="14354" max="14354" width="16.109375" style="3" customWidth="1"/>
-    <col min="14355" max="14355" width="9.77734375" style="3" customWidth="1"/>
-    <col min="14356" max="14356" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14357" max="14357" width="6.109375" style="3" customWidth="1"/>
-    <col min="14358" max="14590" width="9" style="3"/>
-    <col min="14591" max="14591" width="4.77734375" style="3" customWidth="1"/>
-    <col min="14592" max="14592" width="8.109375" style="3" customWidth="1"/>
-    <col min="14593" max="14593" width="9.109375" style="3" customWidth="1"/>
-    <col min="14594" max="14601" width="8.109375" style="3" customWidth="1"/>
-    <col min="14602" max="14602" width="7.33203125" style="3" customWidth="1"/>
-    <col min="14603" max="14603" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14604" max="14604" width="9.44140625" style="3" customWidth="1"/>
-    <col min="14605" max="14605" width="8.109375" style="3" customWidth="1"/>
-    <col min="14606" max="14606" width="7.77734375" style="3" customWidth="1"/>
-    <col min="14607" max="14607" width="8.21875" style="3" customWidth="1"/>
-    <col min="14608" max="14608" width="8.33203125" style="3" customWidth="1"/>
-    <col min="14609" max="14609" width="18.21875" style="3" customWidth="1"/>
-    <col min="14610" max="14610" width="16.109375" style="3" customWidth="1"/>
-    <col min="14611" max="14611" width="9.77734375" style="3" customWidth="1"/>
-    <col min="14612" max="14612" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14613" max="14613" width="6.109375" style="3" customWidth="1"/>
-    <col min="14614" max="14846" width="9" style="3"/>
-    <col min="14847" max="14847" width="4.77734375" style="3" customWidth="1"/>
-    <col min="14848" max="14848" width="8.109375" style="3" customWidth="1"/>
-    <col min="14849" max="14849" width="9.109375" style="3" customWidth="1"/>
-    <col min="14850" max="14857" width="8.109375" style="3" customWidth="1"/>
-    <col min="14858" max="14858" width="7.33203125" style="3" customWidth="1"/>
-    <col min="14859" max="14859" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14860" max="14860" width="9.44140625" style="3" customWidth="1"/>
-    <col min="14861" max="14861" width="8.109375" style="3" customWidth="1"/>
-    <col min="14862" max="14862" width="7.77734375" style="3" customWidth="1"/>
-    <col min="14863" max="14863" width="8.21875" style="3" customWidth="1"/>
-    <col min="14864" max="14864" width="8.33203125" style="3" customWidth="1"/>
-    <col min="14865" max="14865" width="18.21875" style="3" customWidth="1"/>
-    <col min="14866" max="14866" width="16.109375" style="3" customWidth="1"/>
-    <col min="14867" max="14867" width="9.77734375" style="3" customWidth="1"/>
-    <col min="14868" max="14868" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14869" max="14869" width="6.109375" style="3" customWidth="1"/>
-    <col min="14870" max="15102" width="9" style="3"/>
-    <col min="15103" max="15103" width="4.77734375" style="3" customWidth="1"/>
-    <col min="15104" max="15104" width="8.109375" style="3" customWidth="1"/>
-    <col min="15105" max="15105" width="9.109375" style="3" customWidth="1"/>
-    <col min="15106" max="15113" width="8.109375" style="3" customWidth="1"/>
-    <col min="15114" max="15114" width="7.33203125" style="3" customWidth="1"/>
-    <col min="15115" max="15115" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15116" max="15116" width="9.44140625" style="3" customWidth="1"/>
-    <col min="15117" max="15117" width="8.109375" style="3" customWidth="1"/>
-    <col min="15118" max="15118" width="7.77734375" style="3" customWidth="1"/>
-    <col min="15119" max="15119" width="8.21875" style="3" customWidth="1"/>
-    <col min="15120" max="15120" width="8.33203125" style="3" customWidth="1"/>
-    <col min="15121" max="15121" width="18.21875" style="3" customWidth="1"/>
-    <col min="15122" max="15122" width="16.109375" style="3" customWidth="1"/>
-    <col min="15123" max="15123" width="9.77734375" style="3" customWidth="1"/>
-    <col min="15124" max="15124" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15125" max="15125" width="6.109375" style="3" customWidth="1"/>
-    <col min="15126" max="15358" width="9" style="3"/>
-    <col min="15359" max="15359" width="4.77734375" style="3" customWidth="1"/>
-    <col min="15360" max="15360" width="8.109375" style="3" customWidth="1"/>
-    <col min="15361" max="15361" width="9.109375" style="3" customWidth="1"/>
-    <col min="15362" max="15369" width="8.109375" style="3" customWidth="1"/>
-    <col min="15370" max="15370" width="7.33203125" style="3" customWidth="1"/>
-    <col min="15371" max="15371" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15372" max="15372" width="9.44140625" style="3" customWidth="1"/>
-    <col min="15373" max="15373" width="8.109375" style="3" customWidth="1"/>
-    <col min="15374" max="15374" width="7.77734375" style="3" customWidth="1"/>
-    <col min="15375" max="15375" width="8.21875" style="3" customWidth="1"/>
-    <col min="15376" max="15376" width="8.33203125" style="3" customWidth="1"/>
-    <col min="15377" max="15377" width="18.21875" style="3" customWidth="1"/>
-    <col min="15378" max="15378" width="16.109375" style="3" customWidth="1"/>
-    <col min="15379" max="15379" width="9.77734375" style="3" customWidth="1"/>
-    <col min="15380" max="15380" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15381" max="15381" width="6.109375" style="3" customWidth="1"/>
-    <col min="15382" max="15614" width="9" style="3"/>
-    <col min="15615" max="15615" width="4.77734375" style="3" customWidth="1"/>
-    <col min="15616" max="15616" width="8.109375" style="3" customWidth="1"/>
-    <col min="15617" max="15617" width="9.109375" style="3" customWidth="1"/>
-    <col min="15618" max="15625" width="8.109375" style="3" customWidth="1"/>
-    <col min="15626" max="15626" width="7.33203125" style="3" customWidth="1"/>
-    <col min="15627" max="15627" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15628" max="15628" width="9.44140625" style="3" customWidth="1"/>
-    <col min="15629" max="15629" width="8.109375" style="3" customWidth="1"/>
-    <col min="15630" max="15630" width="7.77734375" style="3" customWidth="1"/>
-    <col min="15631" max="15631" width="8.21875" style="3" customWidth="1"/>
-    <col min="15632" max="15632" width="8.33203125" style="3" customWidth="1"/>
-    <col min="15633" max="15633" width="18.21875" style="3" customWidth="1"/>
-    <col min="15634" max="15634" width="16.109375" style="3" customWidth="1"/>
-    <col min="15635" max="15635" width="9.77734375" style="3" customWidth="1"/>
-    <col min="15636" max="15636" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15637" max="15637" width="6.109375" style="3" customWidth="1"/>
-    <col min="15638" max="15870" width="9" style="3"/>
-    <col min="15871" max="15871" width="4.77734375" style="3" customWidth="1"/>
-    <col min="15872" max="15872" width="8.109375" style="3" customWidth="1"/>
-    <col min="15873" max="15873" width="9.109375" style="3" customWidth="1"/>
-    <col min="15874" max="15881" width="8.109375" style="3" customWidth="1"/>
-    <col min="15882" max="15882" width="7.33203125" style="3" customWidth="1"/>
-    <col min="15883" max="15883" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15884" max="15884" width="9.44140625" style="3" customWidth="1"/>
-    <col min="15885" max="15885" width="8.109375" style="3" customWidth="1"/>
-    <col min="15886" max="15886" width="7.77734375" style="3" customWidth="1"/>
-    <col min="15887" max="15887" width="8.21875" style="3" customWidth="1"/>
-    <col min="15888" max="15888" width="8.33203125" style="3" customWidth="1"/>
-    <col min="15889" max="15889" width="18.21875" style="3" customWidth="1"/>
-    <col min="15890" max="15890" width="16.109375" style="3" customWidth="1"/>
-    <col min="15891" max="15891" width="9.77734375" style="3" customWidth="1"/>
-    <col min="15892" max="15892" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15893" max="15893" width="6.109375" style="3" customWidth="1"/>
-    <col min="15894" max="16126" width="9" style="3"/>
-    <col min="16127" max="16127" width="4.77734375" style="3" customWidth="1"/>
-    <col min="16128" max="16128" width="8.109375" style="3" customWidth="1"/>
-    <col min="16129" max="16129" width="9.109375" style="3" customWidth="1"/>
-    <col min="16130" max="16137" width="8.109375" style="3" customWidth="1"/>
-    <col min="16138" max="16138" width="7.33203125" style="3" customWidth="1"/>
-    <col min="16139" max="16139" width="6.33203125" style="3" customWidth="1"/>
-    <col min="16140" max="16140" width="9.44140625" style="3" customWidth="1"/>
-    <col min="16141" max="16141" width="8.109375" style="3" customWidth="1"/>
-    <col min="16142" max="16142" width="7.77734375" style="3" customWidth="1"/>
-    <col min="16143" max="16143" width="8.21875" style="3" customWidth="1"/>
-    <col min="16144" max="16144" width="8.33203125" style="3" customWidth="1"/>
-    <col min="16145" max="16145" width="18.21875" style="3" customWidth="1"/>
-    <col min="16146" max="16146" width="16.109375" style="3" customWidth="1"/>
-    <col min="16147" max="16147" width="9.77734375" style="3" customWidth="1"/>
-    <col min="16148" max="16148" width="6.33203125" style="3" customWidth="1"/>
-    <col min="16149" max="16149" width="6.109375" style="3" customWidth="1"/>
-    <col min="16150" max="16382" width="9" style="3"/>
-    <col min="16383" max="16384" width="9" style="3" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="3" customWidth="1"/>
+    <col min="21" max="22" width="6.77734375" style="26" customWidth="1"/>
+    <col min="23" max="50" width="9" style="1"/>
+    <col min="51" max="51" width="9" style="2"/>
+    <col min="52" max="255" width="9" style="3"/>
+    <col min="256" max="256" width="4.77734375" style="3" customWidth="1"/>
+    <col min="257" max="257" width="8.109375" style="3" customWidth="1"/>
+    <col min="258" max="258" width="9.109375" style="3" customWidth="1"/>
+    <col min="259" max="266" width="8.109375" style="3" customWidth="1"/>
+    <col min="267" max="267" width="7.33203125" style="3" customWidth="1"/>
+    <col min="268" max="268" width="6.33203125" style="3" customWidth="1"/>
+    <col min="269" max="269" width="9.44140625" style="3" customWidth="1"/>
+    <col min="270" max="270" width="8.109375" style="3" customWidth="1"/>
+    <col min="271" max="271" width="7.77734375" style="3" customWidth="1"/>
+    <col min="272" max="272" width="8.21875" style="3" customWidth="1"/>
+    <col min="273" max="273" width="8.33203125" style="3" customWidth="1"/>
+    <col min="274" max="274" width="18.21875" style="3" customWidth="1"/>
+    <col min="275" max="275" width="16.109375" style="3" customWidth="1"/>
+    <col min="276" max="276" width="9.77734375" style="3" customWidth="1"/>
+    <col min="277" max="277" width="6.33203125" style="3" customWidth="1"/>
+    <col min="278" max="278" width="6.109375" style="3" customWidth="1"/>
+    <col min="279" max="511" width="9" style="3"/>
+    <col min="512" max="512" width="4.77734375" style="3" customWidth="1"/>
+    <col min="513" max="513" width="8.109375" style="3" customWidth="1"/>
+    <col min="514" max="514" width="9.109375" style="3" customWidth="1"/>
+    <col min="515" max="522" width="8.109375" style="3" customWidth="1"/>
+    <col min="523" max="523" width="7.33203125" style="3" customWidth="1"/>
+    <col min="524" max="524" width="6.33203125" style="3" customWidth="1"/>
+    <col min="525" max="525" width="9.44140625" style="3" customWidth="1"/>
+    <col min="526" max="526" width="8.109375" style="3" customWidth="1"/>
+    <col min="527" max="527" width="7.77734375" style="3" customWidth="1"/>
+    <col min="528" max="528" width="8.21875" style="3" customWidth="1"/>
+    <col min="529" max="529" width="8.33203125" style="3" customWidth="1"/>
+    <col min="530" max="530" width="18.21875" style="3" customWidth="1"/>
+    <col min="531" max="531" width="16.109375" style="3" customWidth="1"/>
+    <col min="532" max="532" width="9.77734375" style="3" customWidth="1"/>
+    <col min="533" max="533" width="6.33203125" style="3" customWidth="1"/>
+    <col min="534" max="534" width="6.109375" style="3" customWidth="1"/>
+    <col min="535" max="767" width="9" style="3"/>
+    <col min="768" max="768" width="4.77734375" style="3" customWidth="1"/>
+    <col min="769" max="769" width="8.109375" style="3" customWidth="1"/>
+    <col min="770" max="770" width="9.109375" style="3" customWidth="1"/>
+    <col min="771" max="778" width="8.109375" style="3" customWidth="1"/>
+    <col min="779" max="779" width="7.33203125" style="3" customWidth="1"/>
+    <col min="780" max="780" width="6.33203125" style="3" customWidth="1"/>
+    <col min="781" max="781" width="9.44140625" style="3" customWidth="1"/>
+    <col min="782" max="782" width="8.109375" style="3" customWidth="1"/>
+    <col min="783" max="783" width="7.77734375" style="3" customWidth="1"/>
+    <col min="784" max="784" width="8.21875" style="3" customWidth="1"/>
+    <col min="785" max="785" width="8.33203125" style="3" customWidth="1"/>
+    <col min="786" max="786" width="18.21875" style="3" customWidth="1"/>
+    <col min="787" max="787" width="16.109375" style="3" customWidth="1"/>
+    <col min="788" max="788" width="9.77734375" style="3" customWidth="1"/>
+    <col min="789" max="789" width="6.33203125" style="3" customWidth="1"/>
+    <col min="790" max="790" width="6.109375" style="3" customWidth="1"/>
+    <col min="791" max="1023" width="9" style="3"/>
+    <col min="1024" max="1024" width="4.77734375" style="3" customWidth="1"/>
+    <col min="1025" max="1025" width="8.109375" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="9.109375" style="3" customWidth="1"/>
+    <col min="1027" max="1034" width="8.109375" style="3" customWidth="1"/>
+    <col min="1035" max="1035" width="7.33203125" style="3" customWidth="1"/>
+    <col min="1036" max="1036" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1037" max="1037" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1038" max="1038" width="8.109375" style="3" customWidth="1"/>
+    <col min="1039" max="1039" width="7.77734375" style="3" customWidth="1"/>
+    <col min="1040" max="1040" width="8.21875" style="3" customWidth="1"/>
+    <col min="1041" max="1041" width="8.33203125" style="3" customWidth="1"/>
+    <col min="1042" max="1042" width="18.21875" style="3" customWidth="1"/>
+    <col min="1043" max="1043" width="16.109375" style="3" customWidth="1"/>
+    <col min="1044" max="1044" width="9.77734375" style="3" customWidth="1"/>
+    <col min="1045" max="1045" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1046" max="1046" width="6.109375" style="3" customWidth="1"/>
+    <col min="1047" max="1279" width="9" style="3"/>
+    <col min="1280" max="1280" width="4.77734375" style="3" customWidth="1"/>
+    <col min="1281" max="1281" width="8.109375" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="9.109375" style="3" customWidth="1"/>
+    <col min="1283" max="1290" width="8.109375" style="3" customWidth="1"/>
+    <col min="1291" max="1291" width="7.33203125" style="3" customWidth="1"/>
+    <col min="1292" max="1292" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1293" max="1293" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1294" max="1294" width="8.109375" style="3" customWidth="1"/>
+    <col min="1295" max="1295" width="7.77734375" style="3" customWidth="1"/>
+    <col min="1296" max="1296" width="8.21875" style="3" customWidth="1"/>
+    <col min="1297" max="1297" width="8.33203125" style="3" customWidth="1"/>
+    <col min="1298" max="1298" width="18.21875" style="3" customWidth="1"/>
+    <col min="1299" max="1299" width="16.109375" style="3" customWidth="1"/>
+    <col min="1300" max="1300" width="9.77734375" style="3" customWidth="1"/>
+    <col min="1301" max="1301" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1302" max="1302" width="6.109375" style="3" customWidth="1"/>
+    <col min="1303" max="1535" width="9" style="3"/>
+    <col min="1536" max="1536" width="4.77734375" style="3" customWidth="1"/>
+    <col min="1537" max="1537" width="8.109375" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="9.109375" style="3" customWidth="1"/>
+    <col min="1539" max="1546" width="8.109375" style="3" customWidth="1"/>
+    <col min="1547" max="1547" width="7.33203125" style="3" customWidth="1"/>
+    <col min="1548" max="1548" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1549" max="1549" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1550" max="1550" width="8.109375" style="3" customWidth="1"/>
+    <col min="1551" max="1551" width="7.77734375" style="3" customWidth="1"/>
+    <col min="1552" max="1552" width="8.21875" style="3" customWidth="1"/>
+    <col min="1553" max="1553" width="8.33203125" style="3" customWidth="1"/>
+    <col min="1554" max="1554" width="18.21875" style="3" customWidth="1"/>
+    <col min="1555" max="1555" width="16.109375" style="3" customWidth="1"/>
+    <col min="1556" max="1556" width="9.77734375" style="3" customWidth="1"/>
+    <col min="1557" max="1557" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1558" max="1558" width="6.109375" style="3" customWidth="1"/>
+    <col min="1559" max="1791" width="9" style="3"/>
+    <col min="1792" max="1792" width="4.77734375" style="3" customWidth="1"/>
+    <col min="1793" max="1793" width="8.109375" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="9.109375" style="3" customWidth="1"/>
+    <col min="1795" max="1802" width="8.109375" style="3" customWidth="1"/>
+    <col min="1803" max="1803" width="7.33203125" style="3" customWidth="1"/>
+    <col min="1804" max="1804" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1805" max="1805" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1806" max="1806" width="8.109375" style="3" customWidth="1"/>
+    <col min="1807" max="1807" width="7.77734375" style="3" customWidth="1"/>
+    <col min="1808" max="1808" width="8.21875" style="3" customWidth="1"/>
+    <col min="1809" max="1809" width="8.33203125" style="3" customWidth="1"/>
+    <col min="1810" max="1810" width="18.21875" style="3" customWidth="1"/>
+    <col min="1811" max="1811" width="16.109375" style="3" customWidth="1"/>
+    <col min="1812" max="1812" width="9.77734375" style="3" customWidth="1"/>
+    <col min="1813" max="1813" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1814" max="1814" width="6.109375" style="3" customWidth="1"/>
+    <col min="1815" max="2047" width="9" style="3"/>
+    <col min="2048" max="2048" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2049" max="2049" width="8.109375" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="9.109375" style="3" customWidth="1"/>
+    <col min="2051" max="2058" width="8.109375" style="3" customWidth="1"/>
+    <col min="2059" max="2059" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2060" max="2060" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2061" max="2061" width="9.44140625" style="3" customWidth="1"/>
+    <col min="2062" max="2062" width="8.109375" style="3" customWidth="1"/>
+    <col min="2063" max="2063" width="7.77734375" style="3" customWidth="1"/>
+    <col min="2064" max="2064" width="8.21875" style="3" customWidth="1"/>
+    <col min="2065" max="2065" width="8.33203125" style="3" customWidth="1"/>
+    <col min="2066" max="2066" width="18.21875" style="3" customWidth="1"/>
+    <col min="2067" max="2067" width="16.109375" style="3" customWidth="1"/>
+    <col min="2068" max="2068" width="9.77734375" style="3" customWidth="1"/>
+    <col min="2069" max="2069" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2070" max="2070" width="6.109375" style="3" customWidth="1"/>
+    <col min="2071" max="2303" width="9" style="3"/>
+    <col min="2304" max="2304" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2305" max="2305" width="8.109375" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="9.109375" style="3" customWidth="1"/>
+    <col min="2307" max="2314" width="8.109375" style="3" customWidth="1"/>
+    <col min="2315" max="2315" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2316" max="2316" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2317" max="2317" width="9.44140625" style="3" customWidth="1"/>
+    <col min="2318" max="2318" width="8.109375" style="3" customWidth="1"/>
+    <col min="2319" max="2319" width="7.77734375" style="3" customWidth="1"/>
+    <col min="2320" max="2320" width="8.21875" style="3" customWidth="1"/>
+    <col min="2321" max="2321" width="8.33203125" style="3" customWidth="1"/>
+    <col min="2322" max="2322" width="18.21875" style="3" customWidth="1"/>
+    <col min="2323" max="2323" width="16.109375" style="3" customWidth="1"/>
+    <col min="2324" max="2324" width="9.77734375" style="3" customWidth="1"/>
+    <col min="2325" max="2325" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2326" max="2326" width="6.109375" style="3" customWidth="1"/>
+    <col min="2327" max="2559" width="9" style="3"/>
+    <col min="2560" max="2560" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2561" max="2561" width="8.109375" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="9.109375" style="3" customWidth="1"/>
+    <col min="2563" max="2570" width="8.109375" style="3" customWidth="1"/>
+    <col min="2571" max="2571" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2572" max="2572" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2573" max="2573" width="9.44140625" style="3" customWidth="1"/>
+    <col min="2574" max="2574" width="8.109375" style="3" customWidth="1"/>
+    <col min="2575" max="2575" width="7.77734375" style="3" customWidth="1"/>
+    <col min="2576" max="2576" width="8.21875" style="3" customWidth="1"/>
+    <col min="2577" max="2577" width="8.33203125" style="3" customWidth="1"/>
+    <col min="2578" max="2578" width="18.21875" style="3" customWidth="1"/>
+    <col min="2579" max="2579" width="16.109375" style="3" customWidth="1"/>
+    <col min="2580" max="2580" width="9.77734375" style="3" customWidth="1"/>
+    <col min="2581" max="2581" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2582" max="2582" width="6.109375" style="3" customWidth="1"/>
+    <col min="2583" max="2815" width="9" style="3"/>
+    <col min="2816" max="2816" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2817" max="2817" width="8.109375" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="9.109375" style="3" customWidth="1"/>
+    <col min="2819" max="2826" width="8.109375" style="3" customWidth="1"/>
+    <col min="2827" max="2827" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2828" max="2828" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2829" max="2829" width="9.44140625" style="3" customWidth="1"/>
+    <col min="2830" max="2830" width="8.109375" style="3" customWidth="1"/>
+    <col min="2831" max="2831" width="7.77734375" style="3" customWidth="1"/>
+    <col min="2832" max="2832" width="8.21875" style="3" customWidth="1"/>
+    <col min="2833" max="2833" width="8.33203125" style="3" customWidth="1"/>
+    <col min="2834" max="2834" width="18.21875" style="3" customWidth="1"/>
+    <col min="2835" max="2835" width="16.109375" style="3" customWidth="1"/>
+    <col min="2836" max="2836" width="9.77734375" style="3" customWidth="1"/>
+    <col min="2837" max="2837" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2838" max="2838" width="6.109375" style="3" customWidth="1"/>
+    <col min="2839" max="3071" width="9" style="3"/>
+    <col min="3072" max="3072" width="4.77734375" style="3" customWidth="1"/>
+    <col min="3073" max="3073" width="8.109375" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="9.109375" style="3" customWidth="1"/>
+    <col min="3075" max="3082" width="8.109375" style="3" customWidth="1"/>
+    <col min="3083" max="3083" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3084" max="3084" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3085" max="3085" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3086" max="3086" width="8.109375" style="3" customWidth="1"/>
+    <col min="3087" max="3087" width="7.77734375" style="3" customWidth="1"/>
+    <col min="3088" max="3088" width="8.21875" style="3" customWidth="1"/>
+    <col min="3089" max="3089" width="8.33203125" style="3" customWidth="1"/>
+    <col min="3090" max="3090" width="18.21875" style="3" customWidth="1"/>
+    <col min="3091" max="3091" width="16.109375" style="3" customWidth="1"/>
+    <col min="3092" max="3092" width="9.77734375" style="3" customWidth="1"/>
+    <col min="3093" max="3093" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3094" max="3094" width="6.109375" style="3" customWidth="1"/>
+    <col min="3095" max="3327" width="9" style="3"/>
+    <col min="3328" max="3328" width="4.77734375" style="3" customWidth="1"/>
+    <col min="3329" max="3329" width="8.109375" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="9.109375" style="3" customWidth="1"/>
+    <col min="3331" max="3338" width="8.109375" style="3" customWidth="1"/>
+    <col min="3339" max="3339" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3340" max="3340" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3341" max="3341" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3342" max="3342" width="8.109375" style="3" customWidth="1"/>
+    <col min="3343" max="3343" width="7.77734375" style="3" customWidth="1"/>
+    <col min="3344" max="3344" width="8.21875" style="3" customWidth="1"/>
+    <col min="3345" max="3345" width="8.33203125" style="3" customWidth="1"/>
+    <col min="3346" max="3346" width="18.21875" style="3" customWidth="1"/>
+    <col min="3347" max="3347" width="16.109375" style="3" customWidth="1"/>
+    <col min="3348" max="3348" width="9.77734375" style="3" customWidth="1"/>
+    <col min="3349" max="3349" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3350" max="3350" width="6.109375" style="3" customWidth="1"/>
+    <col min="3351" max="3583" width="9" style="3"/>
+    <col min="3584" max="3584" width="4.77734375" style="3" customWidth="1"/>
+    <col min="3585" max="3585" width="8.109375" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="9.109375" style="3" customWidth="1"/>
+    <col min="3587" max="3594" width="8.109375" style="3" customWidth="1"/>
+    <col min="3595" max="3595" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3596" max="3596" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3597" max="3597" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3598" max="3598" width="8.109375" style="3" customWidth="1"/>
+    <col min="3599" max="3599" width="7.77734375" style="3" customWidth="1"/>
+    <col min="3600" max="3600" width="8.21875" style="3" customWidth="1"/>
+    <col min="3601" max="3601" width="8.33203125" style="3" customWidth="1"/>
+    <col min="3602" max="3602" width="18.21875" style="3" customWidth="1"/>
+    <col min="3603" max="3603" width="16.109375" style="3" customWidth="1"/>
+    <col min="3604" max="3604" width="9.77734375" style="3" customWidth="1"/>
+    <col min="3605" max="3605" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3606" max="3606" width="6.109375" style="3" customWidth="1"/>
+    <col min="3607" max="3839" width="9" style="3"/>
+    <col min="3840" max="3840" width="4.77734375" style="3" customWidth="1"/>
+    <col min="3841" max="3841" width="8.109375" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="9.109375" style="3" customWidth="1"/>
+    <col min="3843" max="3850" width="8.109375" style="3" customWidth="1"/>
+    <col min="3851" max="3851" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3852" max="3852" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3853" max="3853" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3854" max="3854" width="8.109375" style="3" customWidth="1"/>
+    <col min="3855" max="3855" width="7.77734375" style="3" customWidth="1"/>
+    <col min="3856" max="3856" width="8.21875" style="3" customWidth="1"/>
+    <col min="3857" max="3857" width="8.33203125" style="3" customWidth="1"/>
+    <col min="3858" max="3858" width="18.21875" style="3" customWidth="1"/>
+    <col min="3859" max="3859" width="16.109375" style="3" customWidth="1"/>
+    <col min="3860" max="3860" width="9.77734375" style="3" customWidth="1"/>
+    <col min="3861" max="3861" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3862" max="3862" width="6.109375" style="3" customWidth="1"/>
+    <col min="3863" max="4095" width="9" style="3"/>
+    <col min="4096" max="4096" width="4.77734375" style="3" customWidth="1"/>
+    <col min="4097" max="4097" width="8.109375" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="9.109375" style="3" customWidth="1"/>
+    <col min="4099" max="4106" width="8.109375" style="3" customWidth="1"/>
+    <col min="4107" max="4107" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4108" max="4108" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4109" max="4109" width="9.44140625" style="3" customWidth="1"/>
+    <col min="4110" max="4110" width="8.109375" style="3" customWidth="1"/>
+    <col min="4111" max="4111" width="7.77734375" style="3" customWidth="1"/>
+    <col min="4112" max="4112" width="8.21875" style="3" customWidth="1"/>
+    <col min="4113" max="4113" width="8.33203125" style="3" customWidth="1"/>
+    <col min="4114" max="4114" width="18.21875" style="3" customWidth="1"/>
+    <col min="4115" max="4115" width="16.109375" style="3" customWidth="1"/>
+    <col min="4116" max="4116" width="9.77734375" style="3" customWidth="1"/>
+    <col min="4117" max="4117" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4118" max="4118" width="6.109375" style="3" customWidth="1"/>
+    <col min="4119" max="4351" width="9" style="3"/>
+    <col min="4352" max="4352" width="4.77734375" style="3" customWidth="1"/>
+    <col min="4353" max="4353" width="8.109375" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="9.109375" style="3" customWidth="1"/>
+    <col min="4355" max="4362" width="8.109375" style="3" customWidth="1"/>
+    <col min="4363" max="4363" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4364" max="4364" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4365" max="4365" width="9.44140625" style="3" customWidth="1"/>
+    <col min="4366" max="4366" width="8.109375" style="3" customWidth="1"/>
+    <col min="4367" max="4367" width="7.77734375" style="3" customWidth="1"/>
+    <col min="4368" max="4368" width="8.21875" style="3" customWidth="1"/>
+    <col min="4369" max="4369" width="8.33203125" style="3" customWidth="1"/>
+    <col min="4370" max="4370" width="18.21875" style="3" customWidth="1"/>
+    <col min="4371" max="4371" width="16.109375" style="3" customWidth="1"/>
+    <col min="4372" max="4372" width="9.77734375" style="3" customWidth="1"/>
+    <col min="4373" max="4373" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4374" max="4374" width="6.109375" style="3" customWidth="1"/>
+    <col min="4375" max="4607" width="9" style="3"/>
+    <col min="4608" max="4608" width="4.77734375" style="3" customWidth="1"/>
+    <col min="4609" max="4609" width="8.109375" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="9.109375" style="3" customWidth="1"/>
+    <col min="4611" max="4618" width="8.109375" style="3" customWidth="1"/>
+    <col min="4619" max="4619" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4620" max="4620" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4621" max="4621" width="9.44140625" style="3" customWidth="1"/>
+    <col min="4622" max="4622" width="8.109375" style="3" customWidth="1"/>
+    <col min="4623" max="4623" width="7.77734375" style="3" customWidth="1"/>
+    <col min="4624" max="4624" width="8.21875" style="3" customWidth="1"/>
+    <col min="4625" max="4625" width="8.33203125" style="3" customWidth="1"/>
+    <col min="4626" max="4626" width="18.21875" style="3" customWidth="1"/>
+    <col min="4627" max="4627" width="16.109375" style="3" customWidth="1"/>
+    <col min="4628" max="4628" width="9.77734375" style="3" customWidth="1"/>
+    <col min="4629" max="4629" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4630" max="4630" width="6.109375" style="3" customWidth="1"/>
+    <col min="4631" max="4863" width="9" style="3"/>
+    <col min="4864" max="4864" width="4.77734375" style="3" customWidth="1"/>
+    <col min="4865" max="4865" width="8.109375" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="9.109375" style="3" customWidth="1"/>
+    <col min="4867" max="4874" width="8.109375" style="3" customWidth="1"/>
+    <col min="4875" max="4875" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4876" max="4876" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4877" max="4877" width="9.44140625" style="3" customWidth="1"/>
+    <col min="4878" max="4878" width="8.109375" style="3" customWidth="1"/>
+    <col min="4879" max="4879" width="7.77734375" style="3" customWidth="1"/>
+    <col min="4880" max="4880" width="8.21875" style="3" customWidth="1"/>
+    <col min="4881" max="4881" width="8.33203125" style="3" customWidth="1"/>
+    <col min="4882" max="4882" width="18.21875" style="3" customWidth="1"/>
+    <col min="4883" max="4883" width="16.109375" style="3" customWidth="1"/>
+    <col min="4884" max="4884" width="9.77734375" style="3" customWidth="1"/>
+    <col min="4885" max="4885" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4886" max="4886" width="6.109375" style="3" customWidth="1"/>
+    <col min="4887" max="5119" width="9" style="3"/>
+    <col min="5120" max="5120" width="4.77734375" style="3" customWidth="1"/>
+    <col min="5121" max="5121" width="8.109375" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="9.109375" style="3" customWidth="1"/>
+    <col min="5123" max="5130" width="8.109375" style="3" customWidth="1"/>
+    <col min="5131" max="5131" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5132" max="5132" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5133" max="5133" width="9.44140625" style="3" customWidth="1"/>
+    <col min="5134" max="5134" width="8.109375" style="3" customWidth="1"/>
+    <col min="5135" max="5135" width="7.77734375" style="3" customWidth="1"/>
+    <col min="5136" max="5136" width="8.21875" style="3" customWidth="1"/>
+    <col min="5137" max="5137" width="8.33203125" style="3" customWidth="1"/>
+    <col min="5138" max="5138" width="18.21875" style="3" customWidth="1"/>
+    <col min="5139" max="5139" width="16.109375" style="3" customWidth="1"/>
+    <col min="5140" max="5140" width="9.77734375" style="3" customWidth="1"/>
+    <col min="5141" max="5141" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5142" max="5142" width="6.109375" style="3" customWidth="1"/>
+    <col min="5143" max="5375" width="9" style="3"/>
+    <col min="5376" max="5376" width="4.77734375" style="3" customWidth="1"/>
+    <col min="5377" max="5377" width="8.109375" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="9.109375" style="3" customWidth="1"/>
+    <col min="5379" max="5386" width="8.109375" style="3" customWidth="1"/>
+    <col min="5387" max="5387" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5388" max="5388" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5389" max="5389" width="9.44140625" style="3" customWidth="1"/>
+    <col min="5390" max="5390" width="8.109375" style="3" customWidth="1"/>
+    <col min="5391" max="5391" width="7.77734375" style="3" customWidth="1"/>
+    <col min="5392" max="5392" width="8.21875" style="3" customWidth="1"/>
+    <col min="5393" max="5393" width="8.33203125" style="3" customWidth="1"/>
+    <col min="5394" max="5394" width="18.21875" style="3" customWidth="1"/>
+    <col min="5395" max="5395" width="16.109375" style="3" customWidth="1"/>
+    <col min="5396" max="5396" width="9.77734375" style="3" customWidth="1"/>
+    <col min="5397" max="5397" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5398" max="5398" width="6.109375" style="3" customWidth="1"/>
+    <col min="5399" max="5631" width="9" style="3"/>
+    <col min="5632" max="5632" width="4.77734375" style="3" customWidth="1"/>
+    <col min="5633" max="5633" width="8.109375" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="9.109375" style="3" customWidth="1"/>
+    <col min="5635" max="5642" width="8.109375" style="3" customWidth="1"/>
+    <col min="5643" max="5643" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5644" max="5644" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5645" max="5645" width="9.44140625" style="3" customWidth="1"/>
+    <col min="5646" max="5646" width="8.109375" style="3" customWidth="1"/>
+    <col min="5647" max="5647" width="7.77734375" style="3" customWidth="1"/>
+    <col min="5648" max="5648" width="8.21875" style="3" customWidth="1"/>
+    <col min="5649" max="5649" width="8.33203125" style="3" customWidth="1"/>
+    <col min="5650" max="5650" width="18.21875" style="3" customWidth="1"/>
+    <col min="5651" max="5651" width="16.109375" style="3" customWidth="1"/>
+    <col min="5652" max="5652" width="9.77734375" style="3" customWidth="1"/>
+    <col min="5653" max="5653" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5654" max="5654" width="6.109375" style="3" customWidth="1"/>
+    <col min="5655" max="5887" width="9" style="3"/>
+    <col min="5888" max="5888" width="4.77734375" style="3" customWidth="1"/>
+    <col min="5889" max="5889" width="8.109375" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="9.109375" style="3" customWidth="1"/>
+    <col min="5891" max="5898" width="8.109375" style="3" customWidth="1"/>
+    <col min="5899" max="5899" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5900" max="5900" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5901" max="5901" width="9.44140625" style="3" customWidth="1"/>
+    <col min="5902" max="5902" width="8.109375" style="3" customWidth="1"/>
+    <col min="5903" max="5903" width="7.77734375" style="3" customWidth="1"/>
+    <col min="5904" max="5904" width="8.21875" style="3" customWidth="1"/>
+    <col min="5905" max="5905" width="8.33203125" style="3" customWidth="1"/>
+    <col min="5906" max="5906" width="18.21875" style="3" customWidth="1"/>
+    <col min="5907" max="5907" width="16.109375" style="3" customWidth="1"/>
+    <col min="5908" max="5908" width="9.77734375" style="3" customWidth="1"/>
+    <col min="5909" max="5909" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5910" max="5910" width="6.109375" style="3" customWidth="1"/>
+    <col min="5911" max="6143" width="9" style="3"/>
+    <col min="6144" max="6144" width="4.77734375" style="3" customWidth="1"/>
+    <col min="6145" max="6145" width="8.109375" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="9.109375" style="3" customWidth="1"/>
+    <col min="6147" max="6154" width="8.109375" style="3" customWidth="1"/>
+    <col min="6155" max="6155" width="7.33203125" style="3" customWidth="1"/>
+    <col min="6156" max="6156" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6157" max="6157" width="9.44140625" style="3" customWidth="1"/>
+    <col min="6158" max="6158" width="8.109375" style="3" customWidth="1"/>
+    <col min="6159" max="6159" width="7.77734375" style="3" customWidth="1"/>
+    <col min="6160" max="6160" width="8.21875" style="3" customWidth="1"/>
+    <col min="6161" max="6161" width="8.33203125" style="3" customWidth="1"/>
+    <col min="6162" max="6162" width="18.21875" style="3" customWidth="1"/>
+    <col min="6163" max="6163" width="16.109375" style="3" customWidth="1"/>
+    <col min="6164" max="6164" width="9.77734375" style="3" customWidth="1"/>
+    <col min="6165" max="6165" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6166" max="6166" width="6.109375" style="3" customWidth="1"/>
+    <col min="6167" max="6399" width="9" style="3"/>
+    <col min="6400" max="6400" width="4.77734375" style="3" customWidth="1"/>
+    <col min="6401" max="6401" width="8.109375" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="9.109375" style="3" customWidth="1"/>
+    <col min="6403" max="6410" width="8.109375" style="3" customWidth="1"/>
+    <col min="6411" max="6411" width="7.33203125" style="3" customWidth="1"/>
+    <col min="6412" max="6412" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6413" max="6413" width="9.44140625" style="3" customWidth="1"/>
+    <col min="6414" max="6414" width="8.109375" style="3" customWidth="1"/>
+    <col min="6415" max="6415" width="7.77734375" style="3" customWidth="1"/>
+    <col min="6416" max="6416" width="8.21875" style="3" customWidth="1"/>
+    <col min="6417" max="6417" width="8.33203125" style="3" customWidth="1"/>
+    <col min="6418" max="6418" width="18.21875" style="3" customWidth="1"/>
+    <col min="6419" max="6419" width="16.109375" style="3" customWidth="1"/>
+    <col min="6420" max="6420" width="9.77734375" style="3" customWidth="1"/>
+    <col min="6421" max="6421" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6422" max="6422" width="6.109375" style="3" customWidth="1"/>
+    <col min="6423" max="6655" width="9" style="3"/>
+    <col min="6656" max="6656" width="4.77734375" style="3" customWidth="1"/>
+    <col min="6657" max="6657" width="8.109375" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="9.109375" style="3" customWidth="1"/>
+    <col min="6659" max="6666" width="8.109375" style="3" customWidth="1"/>
+    <col min="6667" max="6667" width="7.33203125" style="3" customWidth="1"/>
+    <col min="6668" max="6668" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6669" max="6669" width="9.44140625" style="3" customWidth="1"/>
+    <col min="6670" max="6670" width="8.109375" style="3" customWidth="1"/>
+    <col min="6671" max="6671" width="7.77734375" style="3" customWidth="1"/>
+    <col min="6672" max="6672" width="8.21875" style="3" customWidth="1"/>
+    <col min="6673" max="6673" width="8.33203125" style="3" customWidth="1"/>
+    <col min="6674" max="6674" width="18.21875" style="3" customWidth="1"/>
+    <col min="6675" max="6675" width="16.109375" style="3" customWidth="1"/>
+    <col min="6676" max="6676" width="9.77734375" style="3" customWidth="1"/>
+    <col min="6677" max="6677" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6678" max="6678" width="6.109375" style="3" customWidth="1"/>
+    <col min="6679" max="6911" width="9" style="3"/>
+    <col min="6912" max="6912" width="4.77734375" style="3" customWidth="1"/>
+    <col min="6913" max="6913" width="8.109375" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="9.109375" style="3" customWidth="1"/>
+    <col min="6915" max="6922" width="8.109375" style="3" customWidth="1"/>
+    <col min="6923" max="6923" width="7.33203125" style="3" customWidth="1"/>
+    <col min="6924" max="6924" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6925" max="6925" width="9.44140625" style="3" customWidth="1"/>
+    <col min="6926" max="6926" width="8.109375" style="3" customWidth="1"/>
+    <col min="6927" max="6927" width="7.77734375" style="3" customWidth="1"/>
+    <col min="6928" max="6928" width="8.21875" style="3" customWidth="1"/>
+    <col min="6929" max="6929" width="8.33203125" style="3" customWidth="1"/>
+    <col min="6930" max="6930" width="18.21875" style="3" customWidth="1"/>
+    <col min="6931" max="6931" width="16.109375" style="3" customWidth="1"/>
+    <col min="6932" max="6932" width="9.77734375" style="3" customWidth="1"/>
+    <col min="6933" max="6933" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6934" max="6934" width="6.109375" style="3" customWidth="1"/>
+    <col min="6935" max="7167" width="9" style="3"/>
+    <col min="7168" max="7168" width="4.77734375" style="3" customWidth="1"/>
+    <col min="7169" max="7169" width="8.109375" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="9.109375" style="3" customWidth="1"/>
+    <col min="7171" max="7178" width="8.109375" style="3" customWidth="1"/>
+    <col min="7179" max="7179" width="7.33203125" style="3" customWidth="1"/>
+    <col min="7180" max="7180" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7181" max="7181" width="9.44140625" style="3" customWidth="1"/>
+    <col min="7182" max="7182" width="8.109375" style="3" customWidth="1"/>
+    <col min="7183" max="7183" width="7.77734375" style="3" customWidth="1"/>
+    <col min="7184" max="7184" width="8.21875" style="3" customWidth="1"/>
+    <col min="7185" max="7185" width="8.33203125" style="3" customWidth="1"/>
+    <col min="7186" max="7186" width="18.21875" style="3" customWidth="1"/>
+    <col min="7187" max="7187" width="16.109375" style="3" customWidth="1"/>
+    <col min="7188" max="7188" width="9.77734375" style="3" customWidth="1"/>
+    <col min="7189" max="7189" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7190" max="7190" width="6.109375" style="3" customWidth="1"/>
+    <col min="7191" max="7423" width="9" style="3"/>
+    <col min="7424" max="7424" width="4.77734375" style="3" customWidth="1"/>
+    <col min="7425" max="7425" width="8.109375" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="9.109375" style="3" customWidth="1"/>
+    <col min="7427" max="7434" width="8.109375" style="3" customWidth="1"/>
+    <col min="7435" max="7435" width="7.33203125" style="3" customWidth="1"/>
+    <col min="7436" max="7436" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7437" max="7437" width="9.44140625" style="3" customWidth="1"/>
+    <col min="7438" max="7438" width="8.109375" style="3" customWidth="1"/>
+    <col min="7439" max="7439" width="7.77734375" style="3" customWidth="1"/>
+    <col min="7440" max="7440" width="8.21875" style="3" customWidth="1"/>
+    <col min="7441" max="7441" width="8.33203125" style="3" customWidth="1"/>
+    <col min="7442" max="7442" width="18.21875" style="3" customWidth="1"/>
+    <col min="7443" max="7443" width="16.109375" style="3" customWidth="1"/>
+    <col min="7444" max="7444" width="9.77734375" style="3" customWidth="1"/>
+    <col min="7445" max="7445" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7446" max="7446" width="6.109375" style="3" customWidth="1"/>
+    <col min="7447" max="7679" width="9" style="3"/>
+    <col min="7680" max="7680" width="4.77734375" style="3" customWidth="1"/>
+    <col min="7681" max="7681" width="8.109375" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="9.109375" style="3" customWidth="1"/>
+    <col min="7683" max="7690" width="8.109375" style="3" customWidth="1"/>
+    <col min="7691" max="7691" width="7.33203125" style="3" customWidth="1"/>
+    <col min="7692" max="7692" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7693" max="7693" width="9.44140625" style="3" customWidth="1"/>
+    <col min="7694" max="7694" width="8.109375" style="3" customWidth="1"/>
+    <col min="7695" max="7695" width="7.77734375" style="3" customWidth="1"/>
+    <col min="7696" max="7696" width="8.21875" style="3" customWidth="1"/>
+    <col min="7697" max="7697" width="8.33203125" style="3" customWidth="1"/>
+    <col min="7698" max="7698" width="18.21875" style="3" customWidth="1"/>
+    <col min="7699" max="7699" width="16.109375" style="3" customWidth="1"/>
+    <col min="7700" max="7700" width="9.77734375" style="3" customWidth="1"/>
+    <col min="7701" max="7701" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7702" max="7702" width="6.109375" style="3" customWidth="1"/>
+    <col min="7703" max="7935" width="9" style="3"/>
+    <col min="7936" max="7936" width="4.77734375" style="3" customWidth="1"/>
+    <col min="7937" max="7937" width="8.109375" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="9.109375" style="3" customWidth="1"/>
+    <col min="7939" max="7946" width="8.109375" style="3" customWidth="1"/>
+    <col min="7947" max="7947" width="7.33203125" style="3" customWidth="1"/>
+    <col min="7948" max="7948" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7949" max="7949" width="9.44140625" style="3" customWidth="1"/>
+    <col min="7950" max="7950" width="8.109375" style="3" customWidth="1"/>
+    <col min="7951" max="7951" width="7.77734375" style="3" customWidth="1"/>
+    <col min="7952" max="7952" width="8.21875" style="3" customWidth="1"/>
+    <col min="7953" max="7953" width="8.33203125" style="3" customWidth="1"/>
+    <col min="7954" max="7954" width="18.21875" style="3" customWidth="1"/>
+    <col min="7955" max="7955" width="16.109375" style="3" customWidth="1"/>
+    <col min="7956" max="7956" width="9.77734375" style="3" customWidth="1"/>
+    <col min="7957" max="7957" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7958" max="7958" width="6.109375" style="3" customWidth="1"/>
+    <col min="7959" max="8191" width="9" style="3"/>
+    <col min="8192" max="8192" width="4.77734375" style="3" customWidth="1"/>
+    <col min="8193" max="8193" width="8.109375" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="9.109375" style="3" customWidth="1"/>
+    <col min="8195" max="8202" width="8.109375" style="3" customWidth="1"/>
+    <col min="8203" max="8203" width="7.33203125" style="3" customWidth="1"/>
+    <col min="8204" max="8204" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8205" max="8205" width="9.44140625" style="3" customWidth="1"/>
+    <col min="8206" max="8206" width="8.109375" style="3" customWidth="1"/>
+    <col min="8207" max="8207" width="7.77734375" style="3" customWidth="1"/>
+    <col min="8208" max="8208" width="8.21875" style="3" customWidth="1"/>
+    <col min="8209" max="8209" width="8.33203125" style="3" customWidth="1"/>
+    <col min="8210" max="8210" width="18.21875" style="3" customWidth="1"/>
+    <col min="8211" max="8211" width="16.109375" style="3" customWidth="1"/>
+    <col min="8212" max="8212" width="9.77734375" style="3" customWidth="1"/>
+    <col min="8213" max="8213" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8214" max="8214" width="6.109375" style="3" customWidth="1"/>
+    <col min="8215" max="8447" width="9" style="3"/>
+    <col min="8448" max="8448" width="4.77734375" style="3" customWidth="1"/>
+    <col min="8449" max="8449" width="8.109375" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="9.109375" style="3" customWidth="1"/>
+    <col min="8451" max="8458" width="8.109375" style="3" customWidth="1"/>
+    <col min="8459" max="8459" width="7.33203125" style="3" customWidth="1"/>
+    <col min="8460" max="8460" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8461" max="8461" width="9.44140625" style="3" customWidth="1"/>
+    <col min="8462" max="8462" width="8.109375" style="3" customWidth="1"/>
+    <col min="8463" max="8463" width="7.77734375" style="3" customWidth="1"/>
+    <col min="8464" max="8464" width="8.21875" style="3" customWidth="1"/>
+    <col min="8465" max="8465" width="8.33203125" style="3" customWidth="1"/>
+    <col min="8466" max="8466" width="18.21875" style="3" customWidth="1"/>
+    <col min="8467" max="8467" width="16.109375" style="3" customWidth="1"/>
+    <col min="8468" max="8468" width="9.77734375" style="3" customWidth="1"/>
+    <col min="8469" max="8469" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8470" max="8470" width="6.109375" style="3" customWidth="1"/>
+    <col min="8471" max="8703" width="9" style="3"/>
+    <col min="8704" max="8704" width="4.77734375" style="3" customWidth="1"/>
+    <col min="8705" max="8705" width="8.109375" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="9.109375" style="3" customWidth="1"/>
+    <col min="8707" max="8714" width="8.109375" style="3" customWidth="1"/>
+    <col min="8715" max="8715" width="7.33203125" style="3" customWidth="1"/>
+    <col min="8716" max="8716" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8717" max="8717" width="9.44140625" style="3" customWidth="1"/>
+    <col min="8718" max="8718" width="8.109375" style="3" customWidth="1"/>
+    <col min="8719" max="8719" width="7.77734375" style="3" customWidth="1"/>
+    <col min="8720" max="8720" width="8.21875" style="3" customWidth="1"/>
+    <col min="8721" max="8721" width="8.33203125" style="3" customWidth="1"/>
+    <col min="8722" max="8722" width="18.21875" style="3" customWidth="1"/>
+    <col min="8723" max="8723" width="16.109375" style="3" customWidth="1"/>
+    <col min="8724" max="8724" width="9.77734375" style="3" customWidth="1"/>
+    <col min="8725" max="8725" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8726" max="8726" width="6.109375" style="3" customWidth="1"/>
+    <col min="8727" max="8959" width="9" style="3"/>
+    <col min="8960" max="8960" width="4.77734375" style="3" customWidth="1"/>
+    <col min="8961" max="8961" width="8.109375" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="9.109375" style="3" customWidth="1"/>
+    <col min="8963" max="8970" width="8.109375" style="3" customWidth="1"/>
+    <col min="8971" max="8971" width="7.33203125" style="3" customWidth="1"/>
+    <col min="8972" max="8972" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8973" max="8973" width="9.44140625" style="3" customWidth="1"/>
+    <col min="8974" max="8974" width="8.109375" style="3" customWidth="1"/>
+    <col min="8975" max="8975" width="7.77734375" style="3" customWidth="1"/>
+    <col min="8976" max="8976" width="8.21875" style="3" customWidth="1"/>
+    <col min="8977" max="8977" width="8.33203125" style="3" customWidth="1"/>
+    <col min="8978" max="8978" width="18.21875" style="3" customWidth="1"/>
+    <col min="8979" max="8979" width="16.109375" style="3" customWidth="1"/>
+    <col min="8980" max="8980" width="9.77734375" style="3" customWidth="1"/>
+    <col min="8981" max="8981" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8982" max="8982" width="6.109375" style="3" customWidth="1"/>
+    <col min="8983" max="9215" width="9" style="3"/>
+    <col min="9216" max="9216" width="4.77734375" style="3" customWidth="1"/>
+    <col min="9217" max="9217" width="8.109375" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="9.109375" style="3" customWidth="1"/>
+    <col min="9219" max="9226" width="8.109375" style="3" customWidth="1"/>
+    <col min="9227" max="9227" width="7.33203125" style="3" customWidth="1"/>
+    <col min="9228" max="9228" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9229" max="9229" width="9.44140625" style="3" customWidth="1"/>
+    <col min="9230" max="9230" width="8.109375" style="3" customWidth="1"/>
+    <col min="9231" max="9231" width="7.77734375" style="3" customWidth="1"/>
+    <col min="9232" max="9232" width="8.21875" style="3" customWidth="1"/>
+    <col min="9233" max="9233" width="8.33203125" style="3" customWidth="1"/>
+    <col min="9234" max="9234" width="18.21875" style="3" customWidth="1"/>
+    <col min="9235" max="9235" width="16.109375" style="3" customWidth="1"/>
+    <col min="9236" max="9236" width="9.77734375" style="3" customWidth="1"/>
+    <col min="9237" max="9237" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9238" max="9238" width="6.109375" style="3" customWidth="1"/>
+    <col min="9239" max="9471" width="9" style="3"/>
+    <col min="9472" max="9472" width="4.77734375" style="3" customWidth="1"/>
+    <col min="9473" max="9473" width="8.109375" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="9.109375" style="3" customWidth="1"/>
+    <col min="9475" max="9482" width="8.109375" style="3" customWidth="1"/>
+    <col min="9483" max="9483" width="7.33203125" style="3" customWidth="1"/>
+    <col min="9484" max="9484" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9485" max="9485" width="9.44140625" style="3" customWidth="1"/>
+    <col min="9486" max="9486" width="8.109375" style="3" customWidth="1"/>
+    <col min="9487" max="9487" width="7.77734375" style="3" customWidth="1"/>
+    <col min="9488" max="9488" width="8.21875" style="3" customWidth="1"/>
+    <col min="9489" max="9489" width="8.33203125" style="3" customWidth="1"/>
+    <col min="9490" max="9490" width="18.21875" style="3" customWidth="1"/>
+    <col min="9491" max="9491" width="16.109375" style="3" customWidth="1"/>
+    <col min="9492" max="9492" width="9.77734375" style="3" customWidth="1"/>
+    <col min="9493" max="9493" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9494" max="9494" width="6.109375" style="3" customWidth="1"/>
+    <col min="9495" max="9727" width="9" style="3"/>
+    <col min="9728" max="9728" width="4.77734375" style="3" customWidth="1"/>
+    <col min="9729" max="9729" width="8.109375" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="9.109375" style="3" customWidth="1"/>
+    <col min="9731" max="9738" width="8.109375" style="3" customWidth="1"/>
+    <col min="9739" max="9739" width="7.33203125" style="3" customWidth="1"/>
+    <col min="9740" max="9740" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9741" max="9741" width="9.44140625" style="3" customWidth="1"/>
+    <col min="9742" max="9742" width="8.109375" style="3" customWidth="1"/>
+    <col min="9743" max="9743" width="7.77734375" style="3" customWidth="1"/>
+    <col min="9744" max="9744" width="8.21875" style="3" customWidth="1"/>
+    <col min="9745" max="9745" width="8.33203125" style="3" customWidth="1"/>
+    <col min="9746" max="9746" width="18.21875" style="3" customWidth="1"/>
+    <col min="9747" max="9747" width="16.109375" style="3" customWidth="1"/>
+    <col min="9748" max="9748" width="9.77734375" style="3" customWidth="1"/>
+    <col min="9749" max="9749" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9750" max="9750" width="6.109375" style="3" customWidth="1"/>
+    <col min="9751" max="9983" width="9" style="3"/>
+    <col min="9984" max="9984" width="4.77734375" style="3" customWidth="1"/>
+    <col min="9985" max="9985" width="8.109375" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="9.109375" style="3" customWidth="1"/>
+    <col min="9987" max="9994" width="8.109375" style="3" customWidth="1"/>
+    <col min="9995" max="9995" width="7.33203125" style="3" customWidth="1"/>
+    <col min="9996" max="9996" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9997" max="9997" width="9.44140625" style="3" customWidth="1"/>
+    <col min="9998" max="9998" width="8.109375" style="3" customWidth="1"/>
+    <col min="9999" max="9999" width="7.77734375" style="3" customWidth="1"/>
+    <col min="10000" max="10000" width="8.21875" style="3" customWidth="1"/>
+    <col min="10001" max="10001" width="8.33203125" style="3" customWidth="1"/>
+    <col min="10002" max="10002" width="18.21875" style="3" customWidth="1"/>
+    <col min="10003" max="10003" width="16.109375" style="3" customWidth="1"/>
+    <col min="10004" max="10004" width="9.77734375" style="3" customWidth="1"/>
+    <col min="10005" max="10005" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10006" max="10006" width="6.109375" style="3" customWidth="1"/>
+    <col min="10007" max="10239" width="9" style="3"/>
+    <col min="10240" max="10240" width="4.77734375" style="3" customWidth="1"/>
+    <col min="10241" max="10241" width="8.109375" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="9.109375" style="3" customWidth="1"/>
+    <col min="10243" max="10250" width="8.109375" style="3" customWidth="1"/>
+    <col min="10251" max="10251" width="7.33203125" style="3" customWidth="1"/>
+    <col min="10252" max="10252" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10253" max="10253" width="9.44140625" style="3" customWidth="1"/>
+    <col min="10254" max="10254" width="8.109375" style="3" customWidth="1"/>
+    <col min="10255" max="10255" width="7.77734375" style="3" customWidth="1"/>
+    <col min="10256" max="10256" width="8.21875" style="3" customWidth="1"/>
+    <col min="10257" max="10257" width="8.33203125" style="3" customWidth="1"/>
+    <col min="10258" max="10258" width="18.21875" style="3" customWidth="1"/>
+    <col min="10259" max="10259" width="16.109375" style="3" customWidth="1"/>
+    <col min="10260" max="10260" width="9.77734375" style="3" customWidth="1"/>
+    <col min="10261" max="10261" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10262" max="10262" width="6.109375" style="3" customWidth="1"/>
+    <col min="10263" max="10495" width="9" style="3"/>
+    <col min="10496" max="10496" width="4.77734375" style="3" customWidth="1"/>
+    <col min="10497" max="10497" width="8.109375" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="9.109375" style="3" customWidth="1"/>
+    <col min="10499" max="10506" width="8.109375" style="3" customWidth="1"/>
+    <col min="10507" max="10507" width="7.33203125" style="3" customWidth="1"/>
+    <col min="10508" max="10508" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10509" max="10509" width="9.44140625" style="3" customWidth="1"/>
+    <col min="10510" max="10510" width="8.109375" style="3" customWidth="1"/>
+    <col min="10511" max="10511" width="7.77734375" style="3" customWidth="1"/>
+    <col min="10512" max="10512" width="8.21875" style="3" customWidth="1"/>
+    <col min="10513" max="10513" width="8.33203125" style="3" customWidth="1"/>
+    <col min="10514" max="10514" width="18.21875" style="3" customWidth="1"/>
+    <col min="10515" max="10515" width="16.109375" style="3" customWidth="1"/>
+    <col min="10516" max="10516" width="9.77734375" style="3" customWidth="1"/>
+    <col min="10517" max="10517" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10518" max="10518" width="6.109375" style="3" customWidth="1"/>
+    <col min="10519" max="10751" width="9" style="3"/>
+    <col min="10752" max="10752" width="4.77734375" style="3" customWidth="1"/>
+    <col min="10753" max="10753" width="8.109375" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="9.109375" style="3" customWidth="1"/>
+    <col min="10755" max="10762" width="8.109375" style="3" customWidth="1"/>
+    <col min="10763" max="10763" width="7.33203125" style="3" customWidth="1"/>
+    <col min="10764" max="10764" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10765" max="10765" width="9.44140625" style="3" customWidth="1"/>
+    <col min="10766" max="10766" width="8.109375" style="3" customWidth="1"/>
+    <col min="10767" max="10767" width="7.77734375" style="3" customWidth="1"/>
+    <col min="10768" max="10768" width="8.21875" style="3" customWidth="1"/>
+    <col min="10769" max="10769" width="8.33203125" style="3" customWidth="1"/>
+    <col min="10770" max="10770" width="18.21875" style="3" customWidth="1"/>
+    <col min="10771" max="10771" width="16.109375" style="3" customWidth="1"/>
+    <col min="10772" max="10772" width="9.77734375" style="3" customWidth="1"/>
+    <col min="10773" max="10773" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10774" max="10774" width="6.109375" style="3" customWidth="1"/>
+    <col min="10775" max="11007" width="9" style="3"/>
+    <col min="11008" max="11008" width="4.77734375" style="3" customWidth="1"/>
+    <col min="11009" max="11009" width="8.109375" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="9.109375" style="3" customWidth="1"/>
+    <col min="11011" max="11018" width="8.109375" style="3" customWidth="1"/>
+    <col min="11019" max="11019" width="7.33203125" style="3" customWidth="1"/>
+    <col min="11020" max="11020" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11021" max="11021" width="9.44140625" style="3" customWidth="1"/>
+    <col min="11022" max="11022" width="8.109375" style="3" customWidth="1"/>
+    <col min="11023" max="11023" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11024" max="11024" width="8.21875" style="3" customWidth="1"/>
+    <col min="11025" max="11025" width="8.33203125" style="3" customWidth="1"/>
+    <col min="11026" max="11026" width="18.21875" style="3" customWidth="1"/>
+    <col min="11027" max="11027" width="16.109375" style="3" customWidth="1"/>
+    <col min="11028" max="11028" width="9.77734375" style="3" customWidth="1"/>
+    <col min="11029" max="11029" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11030" max="11030" width="6.109375" style="3" customWidth="1"/>
+    <col min="11031" max="11263" width="9" style="3"/>
+    <col min="11264" max="11264" width="4.77734375" style="3" customWidth="1"/>
+    <col min="11265" max="11265" width="8.109375" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="9.109375" style="3" customWidth="1"/>
+    <col min="11267" max="11274" width="8.109375" style="3" customWidth="1"/>
+    <col min="11275" max="11275" width="7.33203125" style="3" customWidth="1"/>
+    <col min="11276" max="11276" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11277" max="11277" width="9.44140625" style="3" customWidth="1"/>
+    <col min="11278" max="11278" width="8.109375" style="3" customWidth="1"/>
+    <col min="11279" max="11279" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11280" max="11280" width="8.21875" style="3" customWidth="1"/>
+    <col min="11281" max="11281" width="8.33203125" style="3" customWidth="1"/>
+    <col min="11282" max="11282" width="18.21875" style="3" customWidth="1"/>
+    <col min="11283" max="11283" width="16.109375" style="3" customWidth="1"/>
+    <col min="11284" max="11284" width="9.77734375" style="3" customWidth="1"/>
+    <col min="11285" max="11285" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11286" max="11286" width="6.109375" style="3" customWidth="1"/>
+    <col min="11287" max="11519" width="9" style="3"/>
+    <col min="11520" max="11520" width="4.77734375" style="3" customWidth="1"/>
+    <col min="11521" max="11521" width="8.109375" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="9.109375" style="3" customWidth="1"/>
+    <col min="11523" max="11530" width="8.109375" style="3" customWidth="1"/>
+    <col min="11531" max="11531" width="7.33203125" style="3" customWidth="1"/>
+    <col min="11532" max="11532" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11533" max="11533" width="9.44140625" style="3" customWidth="1"/>
+    <col min="11534" max="11534" width="8.109375" style="3" customWidth="1"/>
+    <col min="11535" max="11535" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11536" max="11536" width="8.21875" style="3" customWidth="1"/>
+    <col min="11537" max="11537" width="8.33203125" style="3" customWidth="1"/>
+    <col min="11538" max="11538" width="18.21875" style="3" customWidth="1"/>
+    <col min="11539" max="11539" width="16.109375" style="3" customWidth="1"/>
+    <col min="11540" max="11540" width="9.77734375" style="3" customWidth="1"/>
+    <col min="11541" max="11541" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11542" max="11542" width="6.109375" style="3" customWidth="1"/>
+    <col min="11543" max="11775" width="9" style="3"/>
+    <col min="11776" max="11776" width="4.77734375" style="3" customWidth="1"/>
+    <col min="11777" max="11777" width="8.109375" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="9.109375" style="3" customWidth="1"/>
+    <col min="11779" max="11786" width="8.109375" style="3" customWidth="1"/>
+    <col min="11787" max="11787" width="7.33203125" style="3" customWidth="1"/>
+    <col min="11788" max="11788" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11789" max="11789" width="9.44140625" style="3" customWidth="1"/>
+    <col min="11790" max="11790" width="8.109375" style="3" customWidth="1"/>
+    <col min="11791" max="11791" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11792" max="11792" width="8.21875" style="3" customWidth="1"/>
+    <col min="11793" max="11793" width="8.33203125" style="3" customWidth="1"/>
+    <col min="11794" max="11794" width="18.21875" style="3" customWidth="1"/>
+    <col min="11795" max="11795" width="16.109375" style="3" customWidth="1"/>
+    <col min="11796" max="11796" width="9.77734375" style="3" customWidth="1"/>
+    <col min="11797" max="11797" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11798" max="11798" width="6.109375" style="3" customWidth="1"/>
+    <col min="11799" max="12031" width="9" style="3"/>
+    <col min="12032" max="12032" width="4.77734375" style="3" customWidth="1"/>
+    <col min="12033" max="12033" width="8.109375" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="9.109375" style="3" customWidth="1"/>
+    <col min="12035" max="12042" width="8.109375" style="3" customWidth="1"/>
+    <col min="12043" max="12043" width="7.33203125" style="3" customWidth="1"/>
+    <col min="12044" max="12044" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12045" max="12045" width="9.44140625" style="3" customWidth="1"/>
+    <col min="12046" max="12046" width="8.109375" style="3" customWidth="1"/>
+    <col min="12047" max="12047" width="7.77734375" style="3" customWidth="1"/>
+    <col min="12048" max="12048" width="8.21875" style="3" customWidth="1"/>
+    <col min="12049" max="12049" width="8.33203125" style="3" customWidth="1"/>
+    <col min="12050" max="12050" width="18.21875" style="3" customWidth="1"/>
+    <col min="12051" max="12051" width="16.109375" style="3" customWidth="1"/>
+    <col min="12052" max="12052" width="9.77734375" style="3" customWidth="1"/>
+    <col min="12053" max="12053" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12054" max="12054" width="6.109375" style="3" customWidth="1"/>
+    <col min="12055" max="12287" width="9" style="3"/>
+    <col min="12288" max="12288" width="4.77734375" style="3" customWidth="1"/>
+    <col min="12289" max="12289" width="8.109375" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="9.109375" style="3" customWidth="1"/>
+    <col min="12291" max="12298" width="8.109375" style="3" customWidth="1"/>
+    <col min="12299" max="12299" width="7.33203125" style="3" customWidth="1"/>
+    <col min="12300" max="12300" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12301" max="12301" width="9.44140625" style="3" customWidth="1"/>
+    <col min="12302" max="12302" width="8.109375" style="3" customWidth="1"/>
+    <col min="12303" max="12303" width="7.77734375" style="3" customWidth="1"/>
+    <col min="12304" max="12304" width="8.21875" style="3" customWidth="1"/>
+    <col min="12305" max="12305" width="8.33203125" style="3" customWidth="1"/>
+    <col min="12306" max="12306" width="18.21875" style="3" customWidth="1"/>
+    <col min="12307" max="12307" width="16.109375" style="3" customWidth="1"/>
+    <col min="12308" max="12308" width="9.77734375" style="3" customWidth="1"/>
+    <col min="12309" max="12309" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12310" max="12310" width="6.109375" style="3" customWidth="1"/>
+    <col min="12311" max="12543" width="9" style="3"/>
+    <col min="12544" max="12544" width="4.77734375" style="3" customWidth="1"/>
+    <col min="12545" max="12545" width="8.109375" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="9.109375" style="3" customWidth="1"/>
+    <col min="12547" max="12554" width="8.109375" style="3" customWidth="1"/>
+    <col min="12555" max="12555" width="7.33203125" style="3" customWidth="1"/>
+    <col min="12556" max="12556" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12557" max="12557" width="9.44140625" style="3" customWidth="1"/>
+    <col min="12558" max="12558" width="8.109375" style="3" customWidth="1"/>
+    <col min="12559" max="12559" width="7.77734375" style="3" customWidth="1"/>
+    <col min="12560" max="12560" width="8.21875" style="3" customWidth="1"/>
+    <col min="12561" max="12561" width="8.33203125" style="3" customWidth="1"/>
+    <col min="12562" max="12562" width="18.21875" style="3" customWidth="1"/>
+    <col min="12563" max="12563" width="16.109375" style="3" customWidth="1"/>
+    <col min="12564" max="12564" width="9.77734375" style="3" customWidth="1"/>
+    <col min="12565" max="12565" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12566" max="12566" width="6.109375" style="3" customWidth="1"/>
+    <col min="12567" max="12799" width="9" style="3"/>
+    <col min="12800" max="12800" width="4.77734375" style="3" customWidth="1"/>
+    <col min="12801" max="12801" width="8.109375" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="9.109375" style="3" customWidth="1"/>
+    <col min="12803" max="12810" width="8.109375" style="3" customWidth="1"/>
+    <col min="12811" max="12811" width="7.33203125" style="3" customWidth="1"/>
+    <col min="12812" max="12812" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12813" max="12813" width="9.44140625" style="3" customWidth="1"/>
+    <col min="12814" max="12814" width="8.109375" style="3" customWidth="1"/>
+    <col min="12815" max="12815" width="7.77734375" style="3" customWidth="1"/>
+    <col min="12816" max="12816" width="8.21875" style="3" customWidth="1"/>
+    <col min="12817" max="12817" width="8.33203125" style="3" customWidth="1"/>
+    <col min="12818" max="12818" width="18.21875" style="3" customWidth="1"/>
+    <col min="12819" max="12819" width="16.109375" style="3" customWidth="1"/>
+    <col min="12820" max="12820" width="9.77734375" style="3" customWidth="1"/>
+    <col min="12821" max="12821" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12822" max="12822" width="6.109375" style="3" customWidth="1"/>
+    <col min="12823" max="13055" width="9" style="3"/>
+    <col min="13056" max="13056" width="4.77734375" style="3" customWidth="1"/>
+    <col min="13057" max="13057" width="8.109375" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="9.109375" style="3" customWidth="1"/>
+    <col min="13059" max="13066" width="8.109375" style="3" customWidth="1"/>
+    <col min="13067" max="13067" width="7.33203125" style="3" customWidth="1"/>
+    <col min="13068" max="13068" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13069" max="13069" width="9.44140625" style="3" customWidth="1"/>
+    <col min="13070" max="13070" width="8.109375" style="3" customWidth="1"/>
+    <col min="13071" max="13071" width="7.77734375" style="3" customWidth="1"/>
+    <col min="13072" max="13072" width="8.21875" style="3" customWidth="1"/>
+    <col min="13073" max="13073" width="8.33203125" style="3" customWidth="1"/>
+    <col min="13074" max="13074" width="18.21875" style="3" customWidth="1"/>
+    <col min="13075" max="13075" width="16.109375" style="3" customWidth="1"/>
+    <col min="13076" max="13076" width="9.77734375" style="3" customWidth="1"/>
+    <col min="13077" max="13077" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13078" max="13078" width="6.109375" style="3" customWidth="1"/>
+    <col min="13079" max="13311" width="9" style="3"/>
+    <col min="13312" max="13312" width="4.77734375" style="3" customWidth="1"/>
+    <col min="13313" max="13313" width="8.109375" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="9.109375" style="3" customWidth="1"/>
+    <col min="13315" max="13322" width="8.109375" style="3" customWidth="1"/>
+    <col min="13323" max="13323" width="7.33203125" style="3" customWidth="1"/>
+    <col min="13324" max="13324" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13325" max="13325" width="9.44140625" style="3" customWidth="1"/>
+    <col min="13326" max="13326" width="8.109375" style="3" customWidth="1"/>
+    <col min="13327" max="13327" width="7.77734375" style="3" customWidth="1"/>
+    <col min="13328" max="13328" width="8.21875" style="3" customWidth="1"/>
+    <col min="13329" max="13329" width="8.33203125" style="3" customWidth="1"/>
+    <col min="13330" max="13330" width="18.21875" style="3" customWidth="1"/>
+    <col min="13331" max="13331" width="16.109375" style="3" customWidth="1"/>
+    <col min="13332" max="13332" width="9.77734375" style="3" customWidth="1"/>
+    <col min="13333" max="13333" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13334" max="13334" width="6.109375" style="3" customWidth="1"/>
+    <col min="13335" max="13567" width="9" style="3"/>
+    <col min="13568" max="13568" width="4.77734375" style="3" customWidth="1"/>
+    <col min="13569" max="13569" width="8.109375" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="9.109375" style="3" customWidth="1"/>
+    <col min="13571" max="13578" width="8.109375" style="3" customWidth="1"/>
+    <col min="13579" max="13579" width="7.33203125" style="3" customWidth="1"/>
+    <col min="13580" max="13580" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13581" max="13581" width="9.44140625" style="3" customWidth="1"/>
+    <col min="13582" max="13582" width="8.109375" style="3" customWidth="1"/>
+    <col min="13583" max="13583" width="7.77734375" style="3" customWidth="1"/>
+    <col min="13584" max="13584" width="8.21875" style="3" customWidth="1"/>
+    <col min="13585" max="13585" width="8.33203125" style="3" customWidth="1"/>
+    <col min="13586" max="13586" width="18.21875" style="3" customWidth="1"/>
+    <col min="13587" max="13587" width="16.109375" style="3" customWidth="1"/>
+    <col min="13588" max="13588" width="9.77734375" style="3" customWidth="1"/>
+    <col min="13589" max="13589" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13590" max="13590" width="6.109375" style="3" customWidth="1"/>
+    <col min="13591" max="13823" width="9" style="3"/>
+    <col min="13824" max="13824" width="4.77734375" style="3" customWidth="1"/>
+    <col min="13825" max="13825" width="8.109375" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="9.109375" style="3" customWidth="1"/>
+    <col min="13827" max="13834" width="8.109375" style="3" customWidth="1"/>
+    <col min="13835" max="13835" width="7.33203125" style="3" customWidth="1"/>
+    <col min="13836" max="13836" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13837" max="13837" width="9.44140625" style="3" customWidth="1"/>
+    <col min="13838" max="13838" width="8.109375" style="3" customWidth="1"/>
+    <col min="13839" max="13839" width="7.77734375" style="3" customWidth="1"/>
+    <col min="13840" max="13840" width="8.21875" style="3" customWidth="1"/>
+    <col min="13841" max="13841" width="8.33203125" style="3" customWidth="1"/>
+    <col min="13842" max="13842" width="18.21875" style="3" customWidth="1"/>
+    <col min="13843" max="13843" width="16.109375" style="3" customWidth="1"/>
+    <col min="13844" max="13844" width="9.77734375" style="3" customWidth="1"/>
+    <col min="13845" max="13845" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13846" max="13846" width="6.109375" style="3" customWidth="1"/>
+    <col min="13847" max="14079" width="9" style="3"/>
+    <col min="14080" max="14080" width="4.77734375" style="3" customWidth="1"/>
+    <col min="14081" max="14081" width="8.109375" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="9.109375" style="3" customWidth="1"/>
+    <col min="14083" max="14090" width="8.109375" style="3" customWidth="1"/>
+    <col min="14091" max="14091" width="7.33203125" style="3" customWidth="1"/>
+    <col min="14092" max="14092" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14093" max="14093" width="9.44140625" style="3" customWidth="1"/>
+    <col min="14094" max="14094" width="8.109375" style="3" customWidth="1"/>
+    <col min="14095" max="14095" width="7.77734375" style="3" customWidth="1"/>
+    <col min="14096" max="14096" width="8.21875" style="3" customWidth="1"/>
+    <col min="14097" max="14097" width="8.33203125" style="3" customWidth="1"/>
+    <col min="14098" max="14098" width="18.21875" style="3" customWidth="1"/>
+    <col min="14099" max="14099" width="16.109375" style="3" customWidth="1"/>
+    <col min="14100" max="14100" width="9.77734375" style="3" customWidth="1"/>
+    <col min="14101" max="14101" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14102" max="14102" width="6.109375" style="3" customWidth="1"/>
+    <col min="14103" max="14335" width="9" style="3"/>
+    <col min="14336" max="14336" width="4.77734375" style="3" customWidth="1"/>
+    <col min="14337" max="14337" width="8.109375" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="9.109375" style="3" customWidth="1"/>
+    <col min="14339" max="14346" width="8.109375" style="3" customWidth="1"/>
+    <col min="14347" max="14347" width="7.33203125" style="3" customWidth="1"/>
+    <col min="14348" max="14348" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14349" max="14349" width="9.44140625" style="3" customWidth="1"/>
+    <col min="14350" max="14350" width="8.109375" style="3" customWidth="1"/>
+    <col min="14351" max="14351" width="7.77734375" style="3" customWidth="1"/>
+    <col min="14352" max="14352" width="8.21875" style="3" customWidth="1"/>
+    <col min="14353" max="14353" width="8.33203125" style="3" customWidth="1"/>
+    <col min="14354" max="14354" width="18.21875" style="3" customWidth="1"/>
+    <col min="14355" max="14355" width="16.109375" style="3" customWidth="1"/>
+    <col min="14356" max="14356" width="9.77734375" style="3" customWidth="1"/>
+    <col min="14357" max="14357" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14358" max="14358" width="6.109375" style="3" customWidth="1"/>
+    <col min="14359" max="14591" width="9" style="3"/>
+    <col min="14592" max="14592" width="4.77734375" style="3" customWidth="1"/>
+    <col min="14593" max="14593" width="8.109375" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="9.109375" style="3" customWidth="1"/>
+    <col min="14595" max="14602" width="8.109375" style="3" customWidth="1"/>
+    <col min="14603" max="14603" width="7.33203125" style="3" customWidth="1"/>
+    <col min="14604" max="14604" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14605" max="14605" width="9.44140625" style="3" customWidth="1"/>
+    <col min="14606" max="14606" width="8.109375" style="3" customWidth="1"/>
+    <col min="14607" max="14607" width="7.77734375" style="3" customWidth="1"/>
+    <col min="14608" max="14608" width="8.21875" style="3" customWidth="1"/>
+    <col min="14609" max="14609" width="8.33203125" style="3" customWidth="1"/>
+    <col min="14610" max="14610" width="18.21875" style="3" customWidth="1"/>
+    <col min="14611" max="14611" width="16.109375" style="3" customWidth="1"/>
+    <col min="14612" max="14612" width="9.77734375" style="3" customWidth="1"/>
+    <col min="14613" max="14613" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14614" max="14614" width="6.109375" style="3" customWidth="1"/>
+    <col min="14615" max="14847" width="9" style="3"/>
+    <col min="14848" max="14848" width="4.77734375" style="3" customWidth="1"/>
+    <col min="14849" max="14849" width="8.109375" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="9.109375" style="3" customWidth="1"/>
+    <col min="14851" max="14858" width="8.109375" style="3" customWidth="1"/>
+    <col min="14859" max="14859" width="7.33203125" style="3" customWidth="1"/>
+    <col min="14860" max="14860" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14861" max="14861" width="9.44140625" style="3" customWidth="1"/>
+    <col min="14862" max="14862" width="8.109375" style="3" customWidth="1"/>
+    <col min="14863" max="14863" width="7.77734375" style="3" customWidth="1"/>
+    <col min="14864" max="14864" width="8.21875" style="3" customWidth="1"/>
+    <col min="14865" max="14865" width="8.33203125" style="3" customWidth="1"/>
+    <col min="14866" max="14866" width="18.21875" style="3" customWidth="1"/>
+    <col min="14867" max="14867" width="16.109375" style="3" customWidth="1"/>
+    <col min="14868" max="14868" width="9.77734375" style="3" customWidth="1"/>
+    <col min="14869" max="14869" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14870" max="14870" width="6.109375" style="3" customWidth="1"/>
+    <col min="14871" max="15103" width="9" style="3"/>
+    <col min="15104" max="15104" width="4.77734375" style="3" customWidth="1"/>
+    <col min="15105" max="15105" width="8.109375" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="9.109375" style="3" customWidth="1"/>
+    <col min="15107" max="15114" width="8.109375" style="3" customWidth="1"/>
+    <col min="15115" max="15115" width="7.33203125" style="3" customWidth="1"/>
+    <col min="15116" max="15116" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15117" max="15117" width="9.44140625" style="3" customWidth="1"/>
+    <col min="15118" max="15118" width="8.109375" style="3" customWidth="1"/>
+    <col min="15119" max="15119" width="7.77734375" style="3" customWidth="1"/>
+    <col min="15120" max="15120" width="8.21875" style="3" customWidth="1"/>
+    <col min="15121" max="15121" width="8.33203125" style="3" customWidth="1"/>
+    <col min="15122" max="15122" width="18.21875" style="3" customWidth="1"/>
+    <col min="15123" max="15123" width="16.109375" style="3" customWidth="1"/>
+    <col min="15124" max="15124" width="9.77734375" style="3" customWidth="1"/>
+    <col min="15125" max="15125" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15126" max="15126" width="6.109375" style="3" customWidth="1"/>
+    <col min="15127" max="15359" width="9" style="3"/>
+    <col min="15360" max="15360" width="4.77734375" style="3" customWidth="1"/>
+    <col min="15361" max="15361" width="8.109375" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="9.109375" style="3" customWidth="1"/>
+    <col min="15363" max="15370" width="8.109375" style="3" customWidth="1"/>
+    <col min="15371" max="15371" width="7.33203125" style="3" customWidth="1"/>
+    <col min="15372" max="15372" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15373" max="15373" width="9.44140625" style="3" customWidth="1"/>
+    <col min="15374" max="15374" width="8.109375" style="3" customWidth="1"/>
+    <col min="15375" max="15375" width="7.77734375" style="3" customWidth="1"/>
+    <col min="15376" max="15376" width="8.21875" style="3" customWidth="1"/>
+    <col min="15377" max="15377" width="8.33203125" style="3" customWidth="1"/>
+    <col min="15378" max="15378" width="18.21875" style="3" customWidth="1"/>
+    <col min="15379" max="15379" width="16.109375" style="3" customWidth="1"/>
+    <col min="15380" max="15380" width="9.77734375" style="3" customWidth="1"/>
+    <col min="15381" max="15381" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15382" max="15382" width="6.109375" style="3" customWidth="1"/>
+    <col min="15383" max="15615" width="9" style="3"/>
+    <col min="15616" max="15616" width="4.77734375" style="3" customWidth="1"/>
+    <col min="15617" max="15617" width="8.109375" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="9.109375" style="3" customWidth="1"/>
+    <col min="15619" max="15626" width="8.109375" style="3" customWidth="1"/>
+    <col min="15627" max="15627" width="7.33203125" style="3" customWidth="1"/>
+    <col min="15628" max="15628" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15629" max="15629" width="9.44140625" style="3" customWidth="1"/>
+    <col min="15630" max="15630" width="8.109375" style="3" customWidth="1"/>
+    <col min="15631" max="15631" width="7.77734375" style="3" customWidth="1"/>
+    <col min="15632" max="15632" width="8.21875" style="3" customWidth="1"/>
+    <col min="15633" max="15633" width="8.33203125" style="3" customWidth="1"/>
+    <col min="15634" max="15634" width="18.21875" style="3" customWidth="1"/>
+    <col min="15635" max="15635" width="16.109375" style="3" customWidth="1"/>
+    <col min="15636" max="15636" width="9.77734375" style="3" customWidth="1"/>
+    <col min="15637" max="15637" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15638" max="15638" width="6.109375" style="3" customWidth="1"/>
+    <col min="15639" max="15871" width="9" style="3"/>
+    <col min="15872" max="15872" width="4.77734375" style="3" customWidth="1"/>
+    <col min="15873" max="15873" width="8.109375" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="9.109375" style="3" customWidth="1"/>
+    <col min="15875" max="15882" width="8.109375" style="3" customWidth="1"/>
+    <col min="15883" max="15883" width="7.33203125" style="3" customWidth="1"/>
+    <col min="15884" max="15884" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15885" max="15885" width="9.44140625" style="3" customWidth="1"/>
+    <col min="15886" max="15886" width="8.109375" style="3" customWidth="1"/>
+    <col min="15887" max="15887" width="7.77734375" style="3" customWidth="1"/>
+    <col min="15888" max="15888" width="8.21875" style="3" customWidth="1"/>
+    <col min="15889" max="15889" width="8.33203125" style="3" customWidth="1"/>
+    <col min="15890" max="15890" width="18.21875" style="3" customWidth="1"/>
+    <col min="15891" max="15891" width="16.109375" style="3" customWidth="1"/>
+    <col min="15892" max="15892" width="9.77734375" style="3" customWidth="1"/>
+    <col min="15893" max="15893" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15894" max="15894" width="6.109375" style="3" customWidth="1"/>
+    <col min="15895" max="16127" width="9" style="3"/>
+    <col min="16128" max="16128" width="4.77734375" style="3" customWidth="1"/>
+    <col min="16129" max="16129" width="8.109375" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="9.109375" style="3" customWidth="1"/>
+    <col min="16131" max="16138" width="8.109375" style="3" customWidth="1"/>
+    <col min="16139" max="16139" width="7.33203125" style="3" customWidth="1"/>
+    <col min="16140" max="16140" width="6.33203125" style="3" customWidth="1"/>
+    <col min="16141" max="16141" width="9.44140625" style="3" customWidth="1"/>
+    <col min="16142" max="16142" width="8.109375" style="3" customWidth="1"/>
+    <col min="16143" max="16143" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16144" max="16144" width="8.21875" style="3" customWidth="1"/>
+    <col min="16145" max="16145" width="8.33203125" style="3" customWidth="1"/>
+    <col min="16146" max="16146" width="18.21875" style="3" customWidth="1"/>
+    <col min="16147" max="16147" width="16.109375" style="3" customWidth="1"/>
+    <col min="16148" max="16148" width="9.77734375" style="3" customWidth="1"/>
+    <col min="16149" max="16149" width="6.33203125" style="3" customWidth="1"/>
+    <col min="16150" max="16150" width="6.109375" style="3" customWidth="1"/>
+    <col min="16151" max="16383" width="9" style="3"/>
+    <col min="16384" max="16384" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="28.8" thickBot="1">
-      <c r="A1" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-    </row>
-    <row r="2" spans="1:50" s="6" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A2" s="54" t="s">
+    <row r="1" spans="1:51" ht="28.8" thickBot="1">
+      <c r="A1" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="73"/>
+    </row>
+    <row r="2" spans="1:51" s="6" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="57" t="s">
+      <c r="O2" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="61"/>
-      <c r="V2" s="4"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="81"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -3168,61 +3360,64 @@
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
-      <c r="AX2" s="5"/>
-    </row>
-    <row r="3" spans="1:50" s="6" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="64" t="s">
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="5"/>
+    </row>
+    <row r="3" spans="1:51" s="6" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="H3" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="I3" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="J3" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="K3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="L3" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="R3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="S3" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="58">
-        <v>1</v>
-      </c>
-      <c r="U3" s="70">
-        <v>2</v>
-      </c>
-      <c r="V3" s="4"/>
+      <c r="T3" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="62" t="s">
+        <v>37</v>
+      </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -3250,31 +3445,32 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
       <c r="AW3" s="4"/>
-      <c r="AX3" s="5"/>
-    </row>
-    <row r="4" spans="1:50" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="5"/>
+    </row>
+    <row r="4" spans="1:51" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="63"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -3302,73 +3498,76 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
-      <c r="AX4" s="5"/>
-    </row>
-    <row r="5" spans="1:50" s="6" customFormat="1" ht="21.75" customHeight="1">
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="5"/>
+    </row>
+    <row r="5" spans="1:51" s="6" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="45" t="s">
+      <c r="J5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="47" t="s">
+      <c r="L5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>27</v>
-      </c>
       <c r="P5" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="49" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="S5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="57" t="s">
+        <v>46</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -3396,9 +3595,10 @@
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
       <c r="AW5" s="4"/>
-      <c r="AX5" s="5"/>
-    </row>
-    <row r="6" spans="1:50">
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="5"/>
+    </row>
+    <row r="6" spans="1:51">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -3413,7 +3613,9 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
-      <c r="M6" s="19"/>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
       <c r="N6" s="35"/>
       <c r="O6" s="35"/>
       <c r="P6" s="35"/>
@@ -3421,9 +3623,10 @@
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
       <c r="T6" s="37"/>
-      <c r="U6" s="38"/>
-    </row>
-    <row r="7" spans="1:50">
+      <c r="U6" s="53"/>
+      <c r="V6" s="38"/>
+    </row>
+    <row r="7" spans="1:51">
       <c r="A7" s="27">
         <v>2</v>
       </c>
@@ -3438,7 +3641,9 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="19"/>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
@@ -3446,9 +3651,10 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-    </row>
-    <row r="8" spans="1:50">
+      <c r="U7" s="54"/>
+      <c r="V7" s="42"/>
+    </row>
+    <row r="8" spans="1:51">
       <c r="A8" s="27">
         <v>3</v>
       </c>
@@ -3463,7 +3669,9 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -3471,9 +3679,10 @@
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-    </row>
-    <row r="9" spans="1:50">
+      <c r="U8" s="54"/>
+      <c r="V8" s="42"/>
+    </row>
+    <row r="9" spans="1:51">
       <c r="A9" s="27">
         <v>4</v>
       </c>
@@ -3488,7 +3697,9 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="19"/>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -3496,9 +3707,10 @@
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-    </row>
-    <row r="10" spans="1:50">
+      <c r="U9" s="54"/>
+      <c r="V9" s="42"/>
+    </row>
+    <row r="10" spans="1:51">
       <c r="A10" s="27">
         <v>5</v>
       </c>
@@ -3513,7 +3725,9 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="19"/>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
       <c r="N10" s="39"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
@@ -3521,9 +3735,10 @@
       <c r="R10" s="40"/>
       <c r="S10" s="40"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-    </row>
-    <row r="11" spans="1:50">
+      <c r="U10" s="54"/>
+      <c r="V10" s="42"/>
+    </row>
+    <row r="11" spans="1:51">
       <c r="A11" s="27">
         <v>6</v>
       </c>
@@ -3538,7 +3753,9 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="19"/>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
       <c r="N11" s="39"/>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
@@ -3546,9 +3763,10 @@
       <c r="R11" s="40"/>
       <c r="S11" s="40"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-    </row>
-    <row r="12" spans="1:50">
+      <c r="U11" s="54"/>
+      <c r="V11" s="42"/>
+    </row>
+    <row r="12" spans="1:51">
       <c r="A12" s="27">
         <v>7</v>
       </c>
@@ -3563,7 +3781,9 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="19"/>
+      <c r="M12" s="19">
+        <v>0</v>
+      </c>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
@@ -3571,9 +3791,10 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="42"/>
-    </row>
-    <row r="13" spans="1:50">
+      <c r="U12" s="54"/>
+      <c r="V12" s="42"/>
+    </row>
+    <row r="13" spans="1:51">
       <c r="A13" s="27">
         <v>8</v>
       </c>
@@ -3588,7 +3809,9 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -3596,9 +3819,10 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-    </row>
-    <row r="14" spans="1:50">
+      <c r="U13" s="54"/>
+      <c r="V13" s="42"/>
+    </row>
+    <row r="14" spans="1:51">
       <c r="A14" s="27">
         <v>9</v>
       </c>
@@ -3613,7 +3837,9 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="19"/>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -3621,9 +3847,10 @@
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="42"/>
-    </row>
-    <row r="15" spans="1:50">
+      <c r="U14" s="54"/>
+      <c r="V14" s="42"/>
+    </row>
+    <row r="15" spans="1:51">
       <c r="A15" s="27">
         <v>10</v>
       </c>
@@ -3638,7 +3865,9 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="19"/>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
@@ -3646,11 +3875,12 @@
       <c r="R15" s="40"/>
       <c r="S15" s="40"/>
       <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
-    </row>
-    <row r="16" spans="1:50">
+      <c r="U15" s="54"/>
+      <c r="V15" s="42"/>
+    </row>
+    <row r="16" spans="1:51">
       <c r="A16" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="34" t="str">
         <f>IFERROR(AVERAGE(B5:B15),"")</f>
@@ -3660,53 +3890,65 @@
         <f t="shared" ref="C16:P16" si="0">IFERROR(AVERAGE(C5:C15),"")</f>
         <v/>
       </c>
-      <c r="D16" s="75" t="str">
+      <c r="D16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75" t="str">
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="75" t="str">
+      <c r="I16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="75" t="str">
+      <c r="J16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="75" t="str">
+      <c r="K16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="75" t="str">
+      <c r="L16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75" t="str">
+      <c r="M16" s="50">
+        <v>0</v>
+      </c>
+      <c r="N16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O16" s="75" t="str">
+      <c r="O16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P16" s="75" t="str">
+      <c r="P16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50" t="str">
+        <f>IFERROR(AVERAGE(T5:T15),"")</f>
+        <v/>
+      </c>
+      <c r="U16" s="50" t="str">
+        <f>IFERROR(AVERAGE(U5:U15),"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="50" t="str">
+        <f>IFERROR(AVERAGE(V5:V15),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="27">
         <v>11</v>
       </c>
@@ -3721,7 +3963,9 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="19"/>
+      <c r="M17" s="19">
+        <v>0</v>
+      </c>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
@@ -3729,9 +3973,10 @@
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
       <c r="T17" s="41"/>
-      <c r="U17" s="42"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="U17" s="54"/>
+      <c r="V17" s="42"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="27">
         <v>12</v>
       </c>
@@ -3746,7 +3991,9 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="19"/>
+      <c r="M18" s="19">
+        <v>0</v>
+      </c>
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
@@ -3754,9 +4001,10 @@
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
       <c r="T18" s="41"/>
-      <c r="U18" s="42"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="U18" s="54"/>
+      <c r="V18" s="42"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="27">
         <v>13</v>
       </c>
@@ -3771,7 +4019,9 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="19"/>
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
@@ -3779,9 +4029,10 @@
       <c r="R19" s="40"/>
       <c r="S19" s="40"/>
       <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="U19" s="54"/>
+      <c r="V19" s="42"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="27">
         <v>14</v>
       </c>
@@ -3796,7 +4047,9 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="19"/>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
       <c r="N20" s="39"/>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
@@ -3804,9 +4057,10 @@
       <c r="R20" s="40"/>
       <c r="S20" s="40"/>
       <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="U20" s="54"/>
+      <c r="V20" s="42"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="27">
         <v>15</v>
       </c>
@@ -3821,7 +4075,9 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="19"/>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
@@ -3829,9 +4085,10 @@
       <c r="R21" s="40"/>
       <c r="S21" s="40"/>
       <c r="T21" s="41"/>
-      <c r="U21" s="42"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="U21" s="54"/>
+      <c r="V21" s="42"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="27">
         <v>16</v>
       </c>
@@ -3846,7 +4103,9 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="19"/>
+      <c r="M22" s="19">
+        <v>0</v>
+      </c>
       <c r="N22" s="39"/>
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
@@ -3854,9 +4113,10 @@
       <c r="R22" s="40"/>
       <c r="S22" s="40"/>
       <c r="T22" s="41"/>
-      <c r="U22" s="42"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="U22" s="54"/>
+      <c r="V22" s="42"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="27">
         <v>17</v>
       </c>
@@ -3871,7 +4131,9 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="19">
+        <v>0</v>
+      </c>
       <c r="N23" s="39"/>
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
@@ -3879,9 +4141,10 @@
       <c r="R23" s="40"/>
       <c r="S23" s="40"/>
       <c r="T23" s="41"/>
-      <c r="U23" s="42"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="U23" s="54"/>
+      <c r="V23" s="42"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="27">
         <v>18</v>
       </c>
@@ -3896,7 +4159,9 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="19"/>
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
       <c r="N24" s="39"/>
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
@@ -3904,9 +4169,10 @@
       <c r="R24" s="40"/>
       <c r="S24" s="40"/>
       <c r="T24" s="41"/>
-      <c r="U24" s="42"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="U24" s="54"/>
+      <c r="V24" s="42"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="27">
         <v>19</v>
       </c>
@@ -3921,7 +4187,9 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="19"/>
+      <c r="M25" s="19">
+        <v>0</v>
+      </c>
       <c r="N25" s="39"/>
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
@@ -3929,9 +4197,10 @@
       <c r="R25" s="40"/>
       <c r="S25" s="40"/>
       <c r="T25" s="41"/>
-      <c r="U25" s="42"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="U25" s="54"/>
+      <c r="V25" s="42"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="27">
         <v>20</v>
       </c>
@@ -3946,7 +4215,9 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="19"/>
+      <c r="M26" s="19">
+        <v>0</v>
+      </c>
       <c r="N26" s="39"/>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
@@ -3954,11 +4225,12 @@
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
       <c r="T26" s="41"/>
-      <c r="U26" s="42"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="U26" s="54"/>
+      <c r="V26" s="42"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="34" t="str">
         <f>IFERROR(AVERAGE(B17:B26),"")</f>
@@ -3968,53 +4240,65 @@
         <f t="shared" ref="C27:P27" si="1">IFERROR(AVERAGE(C17:C26),"")</f>
         <v/>
       </c>
-      <c r="D27" s="75" t="str">
+      <c r="D27" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75" t="str">
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I27" s="75" t="str">
+      <c r="I27" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J27" s="75" t="str">
+      <c r="J27" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K27" s="75" t="str">
+      <c r="K27" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L27" s="75" t="str">
+      <c r="L27" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75" t="str">
+      <c r="M27" s="50">
+        <v>0</v>
+      </c>
+      <c r="N27" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O27" s="75" t="str">
+      <c r="O27" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P27" s="75" t="str">
+      <c r="P27" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50" t="str">
+        <f>IFERROR(AVERAGE(T17:T26),"")</f>
+        <v/>
+      </c>
+      <c r="U27" s="50" t="str">
+        <f>IFERROR(AVERAGE(U17:U26),"")</f>
+        <v/>
+      </c>
+      <c r="V27" s="50" t="str">
+        <f>IFERROR(AVERAGE(V17:V26),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="27">
         <v>21</v>
       </c>
@@ -4029,7 +4313,9 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="19">
+        <v>0</v>
+      </c>
       <c r="N28" s="39"/>
       <c r="O28" s="39"/>
       <c r="P28" s="39"/>
@@ -4037,9 +4323,10 @@
       <c r="R28" s="40"/>
       <c r="S28" s="40"/>
       <c r="T28" s="41"/>
-      <c r="U28" s="42"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="U28" s="54"/>
+      <c r="V28" s="42"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="27">
         <v>22</v>
       </c>
@@ -4054,7 +4341,9 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="19"/>
+      <c r="M29" s="19">
+        <v>0</v>
+      </c>
       <c r="N29" s="39"/>
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
@@ -4062,9 +4351,10 @@
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
       <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="U29" s="54"/>
+      <c r="V29" s="42"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="27">
         <v>23</v>
       </c>
@@ -4079,7 +4369,9 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="19"/>
+      <c r="M30" s="19">
+        <v>0</v>
+      </c>
       <c r="N30" s="39"/>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
@@ -4087,9 +4379,10 @@
       <c r="R30" s="40"/>
       <c r="S30" s="40"/>
       <c r="T30" s="41"/>
-      <c r="U30" s="42"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="U30" s="54"/>
+      <c r="V30" s="42"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="27">
         <v>24</v>
       </c>
@@ -4104,7 +4397,9 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="19"/>
+      <c r="M31" s="19">
+        <v>0</v>
+      </c>
       <c r="N31" s="39"/>
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
@@ -4112,9 +4407,10 @@
       <c r="R31" s="40"/>
       <c r="S31" s="40"/>
       <c r="T31" s="41"/>
-      <c r="U31" s="42"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="U31" s="54"/>
+      <c r="V31" s="42"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="27">
         <v>25</v>
       </c>
@@ -4129,7 +4425,9 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="19"/>
+      <c r="M32" s="19">
+        <v>0</v>
+      </c>
       <c r="N32" s="39"/>
       <c r="O32" s="39"/>
       <c r="P32" s="39"/>
@@ -4137,9 +4435,10 @@
       <c r="R32" s="40"/>
       <c r="S32" s="40"/>
       <c r="T32" s="41"/>
-      <c r="U32" s="42"/>
-    </row>
-    <row r="33" spans="1:50">
+      <c r="U32" s="54"/>
+      <c r="V32" s="42"/>
+    </row>
+    <row r="33" spans="1:51">
       <c r="A33" s="27">
         <v>26</v>
       </c>
@@ -4154,7 +4453,9 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="19"/>
+      <c r="M33" s="19">
+        <v>0</v>
+      </c>
       <c r="N33" s="39"/>
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
@@ -4162,9 +4463,10 @@
       <c r="R33" s="40"/>
       <c r="S33" s="40"/>
       <c r="T33" s="41"/>
-      <c r="U33" s="42"/>
-    </row>
-    <row r="34" spans="1:50">
+      <c r="U33" s="54"/>
+      <c r="V33" s="42"/>
+    </row>
+    <row r="34" spans="1:51">
       <c r="A34" s="27">
         <v>27</v>
       </c>
@@ -4179,7 +4481,9 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="19"/>
+      <c r="M34" s="19">
+        <v>0</v>
+      </c>
       <c r="N34" s="39"/>
       <c r="O34" s="39"/>
       <c r="P34" s="39"/>
@@ -4187,9 +4491,10 @@
       <c r="R34" s="40"/>
       <c r="S34" s="40"/>
       <c r="T34" s="41"/>
-      <c r="U34" s="42"/>
-    </row>
-    <row r="35" spans="1:50">
+      <c r="U34" s="54"/>
+      <c r="V34" s="42"/>
+    </row>
+    <row r="35" spans="1:51">
       <c r="A35" s="27">
         <v>28</v>
       </c>
@@ -4204,7 +4509,9 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="19"/>
+      <c r="M35" s="19">
+        <v>0</v>
+      </c>
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
@@ -4212,9 +4519,10 @@
       <c r="R35" s="40"/>
       <c r="S35" s="40"/>
       <c r="T35" s="41"/>
-      <c r="U35" s="42"/>
-    </row>
-    <row r="36" spans="1:50">
+      <c r="U35" s="54"/>
+      <c r="V35" s="42"/>
+    </row>
+    <row r="36" spans="1:51">
       <c r="A36" s="27">
         <v>29</v>
       </c>
@@ -4229,7 +4537,9 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="19"/>
+      <c r="M36" s="19">
+        <v>0</v>
+      </c>
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>
@@ -4237,9 +4547,10 @@
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="41"/>
-      <c r="U36" s="42"/>
-    </row>
-    <row r="37" spans="1:50">
+      <c r="U36" s="54"/>
+      <c r="V36" s="42"/>
+    </row>
+    <row r="37" spans="1:51">
       <c r="A37" s="27">
         <v>30</v>
       </c>
@@ -4254,7 +4565,9 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="19"/>
+      <c r="M37" s="19">
+        <v>0</v>
+      </c>
       <c r="N37" s="39"/>
       <c r="O37" s="39"/>
       <c r="P37" s="39"/>
@@ -4262,9 +4575,10 @@
       <c r="R37" s="40"/>
       <c r="S37" s="40"/>
       <c r="T37" s="41"/>
-      <c r="U37" s="42"/>
-    </row>
-    <row r="38" spans="1:50">
+      <c r="U37" s="54"/>
+      <c r="V37" s="42"/>
+    </row>
+    <row r="38" spans="1:51">
       <c r="A38" s="27">
         <v>31</v>
       </c>
@@ -4279,7 +4593,9 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="19">
+        <v>0</v>
+      </c>
       <c r="N38" s="39"/>
       <c r="O38" s="39"/>
       <c r="P38" s="39"/>
@@ -4287,11 +4603,12 @@
       <c r="R38" s="40"/>
       <c r="S38" s="40"/>
       <c r="T38" s="41"/>
-      <c r="U38" s="42"/>
-    </row>
-    <row r="39" spans="1:50">
+      <c r="U38" s="54"/>
+      <c r="V38" s="42"/>
+    </row>
+    <row r="39" spans="1:51">
       <c r="A39" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="34" t="str">
         <f>IFERROR(AVERAGE(B28:B38),"")</f>
@@ -4301,55 +4618,67 @@
         <f t="shared" ref="C39:P39" si="2">IFERROR(AVERAGE(C28:C38),"")</f>
         <v/>
       </c>
-      <c r="D39" s="75" t="str">
+      <c r="D39" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75" t="str">
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="75" t="str">
+      <c r="I39" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J39" s="75" t="str">
+      <c r="J39" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K39" s="75" t="str">
+      <c r="K39" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L39" s="75" t="str">
+      <c r="L39" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75" t="str">
+      <c r="M39" s="50">
+        <v>0</v>
+      </c>
+      <c r="N39" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O39" s="75" t="str">
+      <c r="O39" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P39" s="75" t="str">
+      <c r="P39" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-    </row>
-    <row r="40" spans="1:50" s="11" customFormat="1" ht="13.8" thickBot="1">
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50" t="str">
+        <f>IFERROR(AVERAGE(T28:T38),"")</f>
+        <v/>
+      </c>
+      <c r="U39" s="50" t="str">
+        <f>IFERROR(AVERAGE(U28:U38),"")</f>
+        <v/>
+      </c>
+      <c r="V39" s="50" t="str">
+        <f>IFERROR(AVERAGE(V28:V38),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:51" s="11" customFormat="1" ht="13.8" thickBot="1">
       <c r="A40" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="33" t="str">
         <f>IFERROR(AVERAGE(B16,B27,B39),"")</f>
@@ -4359,52 +4688,63 @@
         <f t="shared" ref="C40:P40" si="3">IFERROR(AVERAGE(C16,C27,C39),"")</f>
         <v/>
       </c>
-      <c r="D40" s="76" t="str">
+      <c r="D40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76" t="str">
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I40" s="76" t="str">
+      <c r="I40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J40" s="76" t="str">
+      <c r="J40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K40" s="76" t="str">
+      <c r="K40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L40" s="76" t="str">
+      <c r="L40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76" t="str">
+      <c r="M40" s="51">
+        <v>0</v>
+      </c>
+      <c r="N40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O40" s="76" t="str">
+      <c r="O40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P40" s="76" t="str">
+      <c r="P40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="76"/>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="76"/>
-      <c r="V40" s="1"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51" t="str">
+        <f>IFERROR(AVERAGE(T16,T27,T39),"")</f>
+        <v/>
+      </c>
+      <c r="U40" s="51" t="str">
+        <f>IFERROR(AVERAGE(U16,U27,U39),"")</f>
+        <v/>
+      </c>
+      <c r="V40" s="51" t="str">
+        <f>IFERROR(AVERAGE(V16,V27,V39),"")</f>
+        <v/>
+      </c>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -4432,9 +4772,10 @@
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
-      <c r="AX40" s="10"/>
-    </row>
-    <row r="41" spans="1:50" s="1" customFormat="1">
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="10"/>
+    </row>
+    <row r="41" spans="1:51" s="1" customFormat="1">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -4455,7 +4796,7 @@
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
     </row>
-    <row r="42" spans="1:50" s="1" customFormat="1">
+    <row r="42" spans="1:51" s="1" customFormat="1">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -4476,7 +4817,7 @@
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
     </row>
-    <row r="43" spans="1:50" s="1" customFormat="1">
+    <row r="43" spans="1:51" s="1" customFormat="1">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -4497,7 +4838,7 @@
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
     </row>
-    <row r="44" spans="1:50" s="1" customFormat="1">
+    <row r="44" spans="1:51" s="1" customFormat="1">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -4518,7 +4859,7 @@
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
     </row>
-    <row r="45" spans="1:50" s="1" customFormat="1">
+    <row r="45" spans="1:51" s="1" customFormat="1">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -4539,7 +4880,7 @@
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
     </row>
-    <row r="46" spans="1:50" s="1" customFormat="1">
+    <row r="46" spans="1:51" s="1" customFormat="1">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -4560,7 +4901,7 @@
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
     </row>
-    <row r="47" spans="1:50" s="1" customFormat="1">
+    <row r="47" spans="1:51" s="1" customFormat="1">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -4581,7 +4922,7 @@
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
     </row>
-    <row r="48" spans="1:50" s="1" customFormat="1">
+    <row r="48" spans="1:51" s="1" customFormat="1">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -5274,7 +5615,7 @@
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
     </row>
-    <row r="81" spans="1:50" s="1" customFormat="1">
+    <row r="81" spans="1:51" s="1" customFormat="1">
       <c r="A81" s="12"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -5295,7 +5636,7 @@
       <c r="R81" s="15"/>
       <c r="S81" s="15"/>
     </row>
-    <row r="82" spans="1:50" s="1" customFormat="1">
+    <row r="82" spans="1:51" s="1" customFormat="1">
       <c r="A82" s="12"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
@@ -5316,7 +5657,7 @@
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
     </row>
-    <row r="83" spans="1:50" s="1" customFormat="1">
+    <row r="83" spans="1:51" s="1" customFormat="1">
       <c r="A83" s="12"/>
       <c r="B83" s="13"/>
       <c r="C83" s="14"/>
@@ -5337,7 +5678,7 @@
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
     </row>
-    <row r="84" spans="1:50" s="1" customFormat="1">
+    <row r="84" spans="1:51" s="1" customFormat="1">
       <c r="A84" s="12"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14"/>
@@ -5358,7 +5699,7 @@
       <c r="R84" s="15"/>
       <c r="S84" s="15"/>
     </row>
-    <row r="85" spans="1:50" s="1" customFormat="1">
+    <row r="85" spans="1:51" s="1" customFormat="1">
       <c r="A85" s="12"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14"/>
@@ -5379,7 +5720,7 @@
       <c r="R85" s="15"/>
       <c r="S85" s="15"/>
     </row>
-    <row r="86" spans="1:50" s="1" customFormat="1">
+    <row r="86" spans="1:51" s="1" customFormat="1">
       <c r="A86" s="12"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
@@ -5400,7 +5741,7 @@
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
     </row>
-    <row r="87" spans="1:50" s="1" customFormat="1">
+    <row r="87" spans="1:51" s="1" customFormat="1">
       <c r="A87" s="12"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
@@ -5421,7 +5762,7 @@
       <c r="R87" s="15"/>
       <c r="S87" s="15"/>
     </row>
-    <row r="88" spans="1:50" s="1" customFormat="1">
+    <row r="88" spans="1:51" s="1" customFormat="1">
       <c r="A88" s="12"/>
       <c r="B88" s="13"/>
       <c r="C88" s="14"/>
@@ -5442,7 +5783,7 @@
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
     </row>
-    <row r="89" spans="1:50" s="1" customFormat="1">
+    <row r="89" spans="1:51" s="1" customFormat="1">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
       <c r="C89" s="14"/>
@@ -5463,7 +5804,7 @@
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
     </row>
-    <row r="90" spans="1:50" s="1" customFormat="1">
+    <row r="90" spans="1:51" s="1" customFormat="1">
       <c r="A90" s="12"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14"/>
@@ -5484,7 +5825,7 @@
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
     </row>
-    <row r="91" spans="1:50" s="1" customFormat="1">
+    <row r="91" spans="1:51" s="1" customFormat="1">
       <c r="A91" s="12"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14"/>
@@ -5505,7 +5846,7 @@
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
     </row>
-    <row r="92" spans="1:50" s="20" customFormat="1">
+    <row r="92" spans="1:51" s="20" customFormat="1">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
@@ -5526,7 +5867,8 @@
       <c r="R92" s="19"/>
       <c r="S92" s="19"/>
       <c r="U92" s="21"/>
-      <c r="AX92" s="22"/>
+      <c r="V92" s="21"/>
+      <c r="AY92" s="22"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -5535,17 +5877,8 @@
     <protectedRange sqref="S36:S38" name="区域3_1"/>
     <protectedRange sqref="S6:S15 S17:S21 S23:S26 S28:S37" name="区域3_1_1_2"/>
   </protectedRanges>
-  <mergeCells count="25">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A1:U1"/>
+  <mergeCells count="26">
+    <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -5554,13 +5887,23 @@
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5612,7 +5955,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>8</v>
